--- a/csv/model/CIMS_market share limits/formula_CIMS_market share limits_BC.xlsx
+++ b/csv/model/CIMS_market share limits/formula_CIMS_market share limits_BC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\CIMS_market share limits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0DC9098-A716-409A-AC81-F76BA7898E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2775102A-0DED-43FA-B1DC-7D7EEAA94E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1800" windowWidth="51840" windowHeight="21120" xr2:uid="{A3C6FB99-E443-443D-BFF4-59C92FD8ADAB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B97D06B5-DC0F-4AD5-BC1A-0263B1BEFC88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="327">
   <si>
     <t>&lt;-- Navigate by typing to search</t>
   </si>
@@ -959,61 +959,40 @@
     <t>Light Rail</t>
   </si>
   <si>
-    <t>CIMS.CAN.BC.Transportation Freight.Diesel Blend</t>
-  </si>
-  <si>
-    <t>Transportation Freight</t>
-  </si>
-  <si>
-    <t>Diesel Blend</t>
+    <t>CIMS.CAN.BC.Waste.Sites.Large Sites</t>
+  </si>
+  <si>
+    <t>Waste</t>
+  </si>
+  <si>
+    <t>Large Sites</t>
+  </si>
+  <si>
+    <t>Large Sites No Control</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.BC.Agriculture.Process.Soils</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>Soils</t>
+  </si>
+  <si>
+    <t>Zero Tillage</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.BC.Natural Gas Extraction.Methane Fuel</t>
+  </si>
+  <si>
+    <t>Methane Fuel</t>
+  </si>
+  <si>
+    <t>Biogas</t>
   </si>
   <si>
     <t>Quick method to simulate ethanol feedstock limits (with FIC) - REPLACE WITH SOMETHING BETTER!</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.BC.Transportation Freight.Gasoline Blend</t>
-  </si>
-  <si>
-    <t>Gasoline Blend</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.BC.Transportation Freight.Flex Blend</t>
-  </si>
-  <si>
-    <t>Flex Blend</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.BC.Waste.Sites.Large Sites</t>
-  </si>
-  <si>
-    <t>Waste</t>
-  </si>
-  <si>
-    <t>Large Sites</t>
-  </si>
-  <si>
-    <t>Large Sites No Control</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.BC.Agriculture.Process.Soils</t>
-  </si>
-  <si>
-    <t>Agriculture</t>
-  </si>
-  <si>
-    <t>Soils</t>
-  </si>
-  <si>
-    <t>Zero Tillage</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.BC.Natural Gas Extraction.Methane Fuel</t>
-  </si>
-  <si>
-    <t>Methane Fuel</t>
-  </si>
-  <si>
-    <t>Biogas</t>
   </si>
   <si>
     <t>CIMS.CAN.BC.Petroleum Crude.Methane Fuel</t>
@@ -1408,21 +1387,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA87512D-7CAB-440B-9DCE-836C9E960568}">
-  <dimension ref="A1:X259"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFA7D51-D753-482B-B11D-386E4486ED55}">
+  <dimension ref="A1:X256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X259"/>
+      <selection sqref="A1:X256"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1496,7 +1475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1555,7 +1534,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1614,7 +1593,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1673,7 +1652,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1732,7 +1711,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1791,7 +1770,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1850,7 +1829,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1909,7 +1888,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1968,7 +1947,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2027,7 +2006,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -2086,7 +2065,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -2145,7 +2124,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -2204,7 +2183,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2263,7 +2242,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -2322,7 +2301,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -2381,7 +2360,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -2440,7 +2419,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -2499,7 +2478,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -2558,7 +2537,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -2617,7 +2596,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -2676,7 +2655,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -2735,7 +2714,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -2794,7 +2773,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -2853,7 +2832,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -2912,7 +2891,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -2971,7 +2950,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -3030,7 +3009,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -3089,7 +3068,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -3148,7 +3127,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -3207,7 +3186,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -3266,7 +3245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -3325,7 +3304,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -3384,7 +3363,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -3443,7 +3422,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -3502,7 +3481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -3561,7 +3540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -3620,7 +3599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -3679,7 +3658,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>88</v>
       </c>
@@ -3738,7 +3717,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>88</v>
       </c>
@@ -3797,7 +3776,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>90</v>
       </c>
@@ -3856,7 +3835,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -3915,7 +3894,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -3974,7 +3953,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -4033,7 +4012,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -4092,7 +4071,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -4151,7 +4130,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -4210,7 +4189,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -4269,7 +4248,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>93</v>
       </c>
@@ -4328,7 +4307,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>94</v>
       </c>
@@ -4387,7 +4366,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -4446,7 +4425,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>96</v>
       </c>
@@ -4505,7 +4484,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -4564,7 +4543,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>98</v>
       </c>
@@ -4623,7 +4602,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>99</v>
       </c>
@@ -4682,7 +4661,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -4741,7 +4720,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>100</v>
       </c>
@@ -4800,7 +4779,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>100</v>
       </c>
@@ -4859,7 +4838,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>101</v>
       </c>
@@ -4918,7 +4897,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>101</v>
       </c>
@@ -4977,7 +4956,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>101</v>
       </c>
@@ -5036,7 +5015,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>102</v>
       </c>
@@ -5095,7 +5074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>102</v>
       </c>
@@ -5154,7 +5133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>102</v>
       </c>
@@ -5213,7 +5192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>107</v>
       </c>
@@ -5272,7 +5251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>107</v>
       </c>
@@ -5331,7 +5310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>107</v>
       </c>
@@ -5390,7 +5369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>111</v>
       </c>
@@ -5449,7 +5428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>115</v>
       </c>
@@ -5508,7 +5487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>115</v>
       </c>
@@ -5567,7 +5546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>118</v>
       </c>
@@ -5626,7 +5605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>121</v>
       </c>
@@ -5685,7 +5664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>124</v>
       </c>
@@ -5744,7 +5723,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>124</v>
       </c>
@@ -5803,7 +5782,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>127</v>
       </c>
@@ -5862,7 +5841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>127</v>
       </c>
@@ -5921,7 +5900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>127</v>
       </c>
@@ -5980,7 +5959,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>127</v>
       </c>
@@ -6039,7 +6018,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>127</v>
       </c>
@@ -6098,7 +6077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>127</v>
       </c>
@@ -6157,7 +6136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>131</v>
       </c>
@@ -6216,7 +6195,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>134</v>
       </c>
@@ -6275,7 +6254,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>134</v>
       </c>
@@ -6334,7 +6313,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>134</v>
       </c>
@@ -6393,7 +6372,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>134</v>
       </c>
@@ -6452,7 +6431,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>136</v>
       </c>
@@ -6511,7 +6490,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>136</v>
       </c>
@@ -6570,7 +6549,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>136</v>
       </c>
@@ -6629,7 +6608,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>137</v>
       </c>
@@ -6688,7 +6667,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>137</v>
       </c>
@@ -6747,7 +6726,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>137</v>
       </c>
@@ -6806,7 +6785,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>138</v>
       </c>
@@ -6865,7 +6844,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>139</v>
       </c>
@@ -6924,7 +6903,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>140</v>
       </c>
@@ -6983,7 +6962,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>141</v>
       </c>
@@ -7042,7 +7021,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>142</v>
       </c>
@@ -7101,7 +7080,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>143</v>
       </c>
@@ -7160,7 +7139,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>144</v>
       </c>
@@ -7219,7 +7198,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>145</v>
       </c>
@@ -7278,7 +7257,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>146</v>
       </c>
@@ -7337,7 +7316,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>147</v>
       </c>
@@ -7396,7 +7375,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>147</v>
       </c>
@@ -7455,7 +7434,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>149</v>
       </c>
@@ -7514,7 +7493,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>149</v>
       </c>
@@ -7573,7 +7552,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>151</v>
       </c>
@@ -7632,7 +7611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>155</v>
       </c>
@@ -7691,7 +7670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>155</v>
       </c>
@@ -7750,7 +7729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>159</v>
       </c>
@@ -7809,7 +7788,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>159</v>
       </c>
@@ -7868,7 +7847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>159</v>
       </c>
@@ -7927,7 +7906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>164</v>
       </c>
@@ -7986,7 +7965,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>164</v>
       </c>
@@ -8045,7 +8024,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>164</v>
       </c>
@@ -8104,7 +8083,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>164</v>
       </c>
@@ -8163,7 +8142,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>165</v>
       </c>
@@ -8222,7 +8201,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>165</v>
       </c>
@@ -8281,7 +8260,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>165</v>
       </c>
@@ -8340,7 +8319,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>167</v>
       </c>
@@ -8399,7 +8378,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>167</v>
       </c>
@@ -8458,7 +8437,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>167</v>
       </c>
@@ -8517,7 +8496,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>168</v>
       </c>
@@ -8576,7 +8555,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>168</v>
       </c>
@@ -8635,7 +8614,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>168</v>
       </c>
@@ -8694,7 +8673,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>169</v>
       </c>
@@ -8753,7 +8732,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>169</v>
       </c>
@@ -8812,7 +8791,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>171</v>
       </c>
@@ -8871,7 +8850,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>171</v>
       </c>
@@ -8930,7 +8909,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>172</v>
       </c>
@@ -8989,7 +8968,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>173</v>
       </c>
@@ -9048,7 +9027,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>174</v>
       </c>
@@ -9107,7 +9086,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>175</v>
       </c>
@@ -9166,7 +9145,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>176</v>
       </c>
@@ -9225,7 +9204,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>177</v>
       </c>
@@ -9284,7 +9263,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>178</v>
       </c>
@@ -9343,7 +9322,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>179</v>
       </c>
@@ -9402,7 +9381,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>179</v>
       </c>
@@ -9461,7 +9440,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>181</v>
       </c>
@@ -9520,7 +9499,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>181</v>
       </c>
@@ -9579,7 +9558,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>182</v>
       </c>
@@ -9638,7 +9617,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>183</v>
       </c>
@@ -9697,7 +9676,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>184</v>
       </c>
@@ -9756,7 +9735,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>185</v>
       </c>
@@ -9815,7 +9794,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>186</v>
       </c>
@@ -9874,7 +9853,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>187</v>
       </c>
@@ -9933,7 +9912,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>188</v>
       </c>
@@ -9992,7 +9971,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>189</v>
       </c>
@@ -10051,7 +10030,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>190</v>
       </c>
@@ -10110,7 +10089,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>191</v>
       </c>
@@ -10169,7 +10148,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>191</v>
       </c>
@@ -10228,7 +10207,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>192</v>
       </c>
@@ -10287,7 +10266,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>192</v>
       </c>
@@ -10346,7 +10325,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>192</v>
       </c>
@@ -10405,7 +10384,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>192</v>
       </c>
@@ -10464,7 +10443,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>192</v>
       </c>
@@ -10523,7 +10502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>192</v>
       </c>
@@ -10582,7 +10561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>192</v>
       </c>
@@ -10641,7 +10620,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>192</v>
       </c>
@@ -10700,7 +10679,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>192</v>
       </c>
@@ -10759,7 +10738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>199</v>
       </c>
@@ -10818,7 +10797,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>199</v>
       </c>
@@ -10877,7 +10856,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>200</v>
       </c>
@@ -10936,7 +10915,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>200</v>
       </c>
@@ -10995,7 +10974,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>201</v>
       </c>
@@ -11054,7 +11033,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>201</v>
       </c>
@@ -11113,7 +11092,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>201</v>
       </c>
@@ -11172,7 +11151,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>202</v>
       </c>
@@ -11231,7 +11210,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>202</v>
       </c>
@@ -11290,7 +11269,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>202</v>
       </c>
@@ -11349,7 +11328,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>203</v>
       </c>
@@ -11408,7 +11387,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>204</v>
       </c>
@@ -11467,7 +11446,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>205</v>
       </c>
@@ -11526,7 +11505,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>206</v>
       </c>
@@ -11585,7 +11564,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>207</v>
       </c>
@@ -11644,7 +11623,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>208</v>
       </c>
@@ -11703,7 +11682,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>209</v>
       </c>
@@ -11762,7 +11741,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>210</v>
       </c>
@@ -11821,7 +11800,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>210</v>
       </c>
@@ -11880,7 +11859,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>215</v>
       </c>
@@ -11939,7 +11918,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>218</v>
       </c>
@@ -11998,7 +11977,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>218</v>
       </c>
@@ -12057,7 +12036,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>221</v>
       </c>
@@ -12116,7 +12095,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>223</v>
       </c>
@@ -12175,7 +12154,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>223</v>
       </c>
@@ -12234,7 +12213,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>225</v>
       </c>
@@ -12293,7 +12272,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>228</v>
       </c>
@@ -12352,7 +12331,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>228</v>
       </c>
@@ -12411,7 +12390,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>228</v>
       </c>
@@ -12470,7 +12449,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>232</v>
       </c>
@@ -12529,7 +12508,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>234</v>
       </c>
@@ -12588,7 +12567,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>234</v>
       </c>
@@ -12647,7 +12626,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>237</v>
       </c>
@@ -12706,7 +12685,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>240</v>
       </c>
@@ -12765,7 +12744,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>240</v>
       </c>
@@ -12824,7 +12803,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>244</v>
       </c>
@@ -12883,7 +12862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>244</v>
       </c>
@@ -12942,7 +12921,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>248</v>
       </c>
@@ -13001,7 +12980,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>248</v>
       </c>
@@ -13060,7 +13039,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>251</v>
       </c>
@@ -13119,7 +13098,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>254</v>
       </c>
@@ -13178,7 +13157,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>254</v>
       </c>
@@ -13237,7 +13216,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>257</v>
       </c>
@@ -13296,7 +13275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>257</v>
       </c>
@@ -13355,7 +13334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>257</v>
       </c>
@@ -13414,7 +13393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>258</v>
       </c>
@@ -13473,7 +13452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>258</v>
       </c>
@@ -13532,7 +13511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>259</v>
       </c>
@@ -13591,7 +13570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>259</v>
       </c>
@@ -13650,7 +13629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>259</v>
       </c>
@@ -13709,7 +13688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>260</v>
       </c>
@@ -13768,7 +13747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>260</v>
       </c>
@@ -13827,7 +13806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>260</v>
       </c>
@@ -13886,7 +13865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>261</v>
       </c>
@@ -13945,7 +13924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>262</v>
       </c>
@@ -14004,7 +13983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>263</v>
       </c>
@@ -14063,7 +14042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>264</v>
       </c>
@@ -14122,7 +14101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>265</v>
       </c>
@@ -14181,7 +14160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>266</v>
       </c>
@@ -14240,7 +14219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>267</v>
       </c>
@@ -14299,7 +14278,7 @@
         <v>0.90500000000000003</v>
       </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>267</v>
       </c>
@@ -14358,7 +14337,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>267</v>
       </c>
@@ -14417,7 +14396,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>267</v>
       </c>
@@ -14476,7 +14455,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>269</v>
       </c>
@@ -14535,7 +14514,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>269</v>
       </c>
@@ -14594,7 +14573,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>269</v>
       </c>
@@ -14653,7 +14632,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>269</v>
       </c>
@@ -14712,7 +14691,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>271</v>
       </c>
@@ -14771,7 +14750,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>271</v>
       </c>
@@ -14830,7 +14809,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>271</v>
       </c>
@@ -14889,7 +14868,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>271</v>
       </c>
@@ -14948,7 +14927,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>272</v>
       </c>
@@ -15007,7 +14986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>275</v>
       </c>
@@ -15066,7 +15045,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>278</v>
       </c>
@@ -15125,7 +15104,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>281</v>
       </c>
@@ -15184,7 +15163,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>285</v>
       </c>
@@ -15243,7 +15222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>288</v>
       </c>
@@ -15302,7 +15281,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>288</v>
       </c>
@@ -15361,7 +15340,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>290</v>
       </c>
@@ -15430,7 +15409,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>290</v>
       </c>
@@ -15499,7 +15478,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>290</v>
       </c>
@@ -15568,7 +15547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>290</v>
       </c>
@@ -15637,7 +15616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>295</v>
       </c>
@@ -15696,7 +15675,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>298</v>
       </c>
@@ -15755,7 +15734,7 @@
         <v>2.8571428571428601E-4</v>
       </c>
     </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>298</v>
       </c>
@@ -15817,7 +15796,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="245" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>304</v>
       </c>
@@ -15876,7 +15855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>307</v>
       </c>
@@ -15893,7 +15872,7 @@
         <v>309</v>
       </c>
       <c r="F246" t="s">
-        <v>108</v>
+        <v>310</v>
       </c>
       <c r="G246" t="s">
         <v>19</v>
@@ -15902,53 +15881,40 @@
         <v>20</v>
       </c>
       <c r="M246">
-        <v>0</v>
+        <v>0.34533154900000002</v>
       </c>
       <c r="N246">
-        <f>(0.002*0.87)/(0.002*0.87+(1-0.002))</f>
-        <v>1.7404525176545902E-3</v>
+        <v>0.34533154900000002</v>
       </c>
       <c r="O246">
-        <f>(0.005*0.87)/(0.005*0.87+(1-0.005))</f>
-        <v>4.3528293390703958E-3</v>
+        <v>0.34533154900000002</v>
       </c>
       <c r="P246">
-        <f>(0.01*0.87)/(0.01*0.87+(1-0.01))</f>
-        <v>8.7113247221387788E-3</v>
+        <v>0.34533154900000002</v>
       </c>
       <c r="Q246">
-        <f>(0.04*0.87)/(0.04*0.87+(1-0.04))</f>
-        <v>3.4981905910735828E-2</v>
+        <v>0.34533154900000002</v>
       </c>
       <c r="R246">
-        <f>MIN((0.2*0.67)/(0.2*0.67+(1-0.2)),Q246*1.1)</f>
-        <v>3.8480096501809412E-2</v>
+        <v>0.34533154900000002</v>
       </c>
       <c r="S246">
-        <f t="shared" ref="S246:W246" si="1">MIN((0.2*0.67)/(0.2*0.67+(1-0.2)),R246*1.1)</f>
-        <v>4.2328106151990355E-2</v>
+        <v>0.34533154900000002</v>
       </c>
       <c r="T246">
-        <f t="shared" si="1"/>
-        <v>4.6560916767189396E-2</v>
+        <v>0.34533154900000002</v>
       </c>
       <c r="U246">
-        <f t="shared" si="1"/>
-        <v>5.1217008443908342E-2</v>
+        <v>0.34533154900000002</v>
       </c>
       <c r="V246">
-        <f t="shared" si="1"/>
-        <v>5.6338709288299184E-2</v>
+        <v>0.34533154900000002</v>
       </c>
       <c r="W246">
-        <f t="shared" si="1"/>
-        <v>6.1972580217129106E-2</v>
-      </c>
-      <c r="X246" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="247" spans="1:24" x14ac:dyDescent="0.3">
+        <v>0.34533154900000002</v>
+      </c>
+    </row>
+    <row r="247" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>311</v>
       </c>
@@ -15959,13 +15925,13 @@
         <v>15</v>
       </c>
       <c r="D247" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E247" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F247" t="s">
-        <v>103</v>
+        <v>314</v>
       </c>
       <c r="G247" t="s">
         <v>19</v>
@@ -15974,56 +15940,42 @@
         <v>20</v>
       </c>
       <c r="M247">
-        <f>(0.02*0.67)/(0.02*0.67+(1-0.02))</f>
-        <v>1.3489027582041475E-2</v>
+        <v>0.95</v>
       </c>
       <c r="N247">
-        <f>(0.04*0.67)/(0.04*0.67+(1-0.04))</f>
-        <v>2.7158492095662748E-2</v>
+        <v>0.95</v>
       </c>
       <c r="O247">
-        <f>(0.05*0.67)/(0.05*0.67+(1-0.05))</f>
-        <v>3.4062023385866808E-2</v>
+        <v>0.95</v>
       </c>
       <c r="P247">
-        <f>(0.06*0.67)/(0.06*0.67+(1-0.06))</f>
-        <v>4.1012038359518464E-2</v>
+        <v>0.95</v>
       </c>
       <c r="Q247">
-        <f>(0.1*0.67)/(0.1*0.67+(1-0.1))</f>
-        <v>6.9286452947259561E-2</v>
+        <v>0.95</v>
       </c>
       <c r="R247">
-        <f>MIN((0.15*0.67)/(0.15*0.67+(1-0.15)),Q247*1.1)</f>
-        <v>7.6215098241985524E-2</v>
+        <v>0.95</v>
       </c>
       <c r="S247">
-        <f t="shared" ref="S247:W247" si="2">MIN((0.15*0.67)/(0.15*0.67+(1-0.15)),R247*1.1)</f>
-        <v>8.3836608066184079E-2</v>
+        <v>0.95</v>
       </c>
       <c r="T247">
-        <f t="shared" si="2"/>
-        <v>9.2220268872802491E-2</v>
+        <v>0.95</v>
       </c>
       <c r="U247">
-        <f t="shared" si="2"/>
-        <v>0.10144229576008275</v>
+        <v>0.95</v>
       </c>
       <c r="V247">
-        <f t="shared" si="2"/>
-        <v>0.10573382430299842</v>
+        <v>0.95</v>
       </c>
       <c r="W247">
-        <f t="shared" si="2"/>
-        <v>0.10573382430299842</v>
-      </c>
-      <c r="X247" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="248" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B248" t="s">
         <v>5</v>
@@ -16032,13 +15984,13 @@
         <v>15</v>
       </c>
       <c r="D248" t="s">
-        <v>308</v>
+        <v>70</v>
       </c>
       <c r="E248" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F248" t="s">
-        <v>103</v>
+        <v>317</v>
       </c>
       <c r="G248" t="s">
         <v>19</v>
@@ -16047,56 +15999,45 @@
         <v>20</v>
       </c>
       <c r="M248">
-        <f>(0.02*0.67)/(0.02*0.67+(1-0.02))</f>
-        <v>1.3489027582041475E-2</v>
+        <v>0.01</v>
       </c>
       <c r="N248">
-        <f>(0.04*0.67)/(0.04*0.67+(1-0.04))</f>
-        <v>2.7158492095662748E-2</v>
+        <v>0.01</v>
       </c>
       <c r="O248">
-        <f>(0.05*0.67)/(0.05*0.67+(1-0.05))</f>
-        <v>3.4062023385866808E-2</v>
+        <v>0.01</v>
       </c>
       <c r="P248">
-        <f>(0.06*0.67)/(0.06*0.67+(1-0.06))</f>
-        <v>4.1012038359518464E-2</v>
+        <v>0.01</v>
       </c>
       <c r="Q248">
-        <f>(0.1*0.67)/(0.1*0.67+(1-0.1))</f>
-        <v>6.9286452947259561E-2</v>
+        <v>0.01</v>
       </c>
       <c r="R248">
-        <f>MIN((0.85*0.67)/(0.85*0.67+(1-0.85)),Q248*2)</f>
-        <v>0.13857290589451912</v>
+        <v>0.01</v>
       </c>
       <c r="S248">
-        <f t="shared" ref="S248:W248" si="3">MIN((0.85*0.67)/(0.85*0.67+(1-0.85)),R248*2)</f>
-        <v>0.27714581178903824</v>
+        <v>0.01</v>
       </c>
       <c r="T248">
-        <f t="shared" si="3"/>
-        <v>0.55429162357807649</v>
+        <v>0.01</v>
       </c>
       <c r="U248">
-        <f t="shared" si="3"/>
-        <v>0.79152189020152885</v>
+        <v>0.01</v>
       </c>
       <c r="V248">
-        <f t="shared" si="3"/>
-        <v>0.79152189020152885</v>
+        <v>0.01</v>
       </c>
       <c r="W248">
-        <f t="shared" si="3"/>
-        <v>0.79152189020152885</v>
+        <v>0.01</v>
       </c>
       <c r="X248" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="249" spans="1:24" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="249" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B249" t="s">
         <v>5</v>
@@ -16105,57 +16046,60 @@
         <v>15</v>
       </c>
       <c r="D249" t="s">
+        <v>85</v>
+      </c>
+      <c r="E249" t="s">
         <v>316</v>
       </c>
-      <c r="E249" t="s">
+      <c r="F249" t="s">
         <v>317</v>
       </c>
-      <c r="F249" t="s">
+      <c r="G249" t="s">
+        <v>19</v>
+      </c>
+      <c r="L249" t="s">
+        <v>20</v>
+      </c>
+      <c r="M249">
+        <v>0.01</v>
+      </c>
+      <c r="N249">
+        <v>0.01</v>
+      </c>
+      <c r="O249">
+        <v>0.01</v>
+      </c>
+      <c r="P249">
+        <v>0.01</v>
+      </c>
+      <c r="Q249">
+        <v>0.01</v>
+      </c>
+      <c r="R249">
+        <v>0.01</v>
+      </c>
+      <c r="S249">
+        <v>0.01</v>
+      </c>
+      <c r="T249">
+        <v>0.01</v>
+      </c>
+      <c r="U249">
+        <v>0.01</v>
+      </c>
+      <c r="V249">
+        <v>0.01</v>
+      </c>
+      <c r="W249">
+        <v>0.01</v>
+      </c>
+      <c r="X249" t="s">
         <v>318</v>
       </c>
-      <c r="G249" t="s">
-        <v>19</v>
-      </c>
-      <c r="L249" t="s">
-        <v>20</v>
-      </c>
-      <c r="M249">
-        <v>0.34533154900000002</v>
-      </c>
-      <c r="N249">
-        <v>0.34533154900000002</v>
-      </c>
-      <c r="O249">
-        <v>0.34533154900000002</v>
-      </c>
-      <c r="P249">
-        <v>0.34533154900000002</v>
-      </c>
-      <c r="Q249">
-        <v>0.34533154900000002</v>
-      </c>
-      <c r="R249">
-        <v>0.34533154900000002</v>
-      </c>
-      <c r="S249">
-        <v>0.34533154900000002</v>
-      </c>
-      <c r="T249">
-        <v>0.34533154900000002</v>
-      </c>
-      <c r="U249">
-        <v>0.34533154900000002</v>
-      </c>
-      <c r="V249">
-        <v>0.34533154900000002</v>
-      </c>
-      <c r="W249">
-        <v>0.34533154900000002</v>
-      </c>
-    </row>
-    <row r="250" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="250" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B250" t="s">
         <v>5</v>
@@ -16164,58 +16108,61 @@
         <v>15</v>
       </c>
       <c r="D250" t="s">
-        <v>320</v>
+        <v>89</v>
       </c>
       <c r="E250" t="s">
+        <v>316</v>
+      </c>
+      <c r="F250" t="s">
+        <v>317</v>
+      </c>
+      <c r="G250" t="s">
+        <v>19</v>
+      </c>
+      <c r="L250" t="s">
+        <v>20</v>
+      </c>
+      <c r="M250">
+        <v>0.01</v>
+      </c>
+      <c r="N250">
+        <v>0.01</v>
+      </c>
+      <c r="O250">
+        <v>0.01</v>
+      </c>
+      <c r="P250">
+        <v>0.01</v>
+      </c>
+      <c r="Q250">
+        <v>0.01</v>
+      </c>
+      <c r="R250">
+        <v>0.01</v>
+      </c>
+      <c r="S250">
+        <v>0.01</v>
+      </c>
+      <c r="T250">
+        <v>0.01</v>
+      </c>
+      <c r="U250">
+        <v>0.01</v>
+      </c>
+      <c r="V250">
+        <v>0.01</v>
+      </c>
+      <c r="W250">
+        <v>0.01</v>
+      </c>
+      <c r="X250" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="251" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
         <v>321</v>
       </c>
-      <c r="F250" t="s">
-        <v>322</v>
-      </c>
-      <c r="G250" t="s">
-        <v>19</v>
-      </c>
-      <c r="L250" t="s">
-        <v>20</v>
-      </c>
-      <c r="M250">
-        <v>0.95</v>
-      </c>
-      <c r="N250">
-        <v>0.95</v>
-      </c>
-      <c r="O250">
-        <v>0.95</v>
-      </c>
-      <c r="P250">
-        <v>0.95</v>
-      </c>
-      <c r="Q250">
-        <v>0.95</v>
-      </c>
-      <c r="R250">
-        <v>0.95</v>
-      </c>
-      <c r="S250">
-        <v>0.95</v>
-      </c>
-      <c r="T250">
-        <v>0.95</v>
-      </c>
-      <c r="U250">
-        <v>0.95</v>
-      </c>
-      <c r="V250">
-        <v>0.95</v>
-      </c>
-      <c r="W250">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="251" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
-        <v>323</v>
-      </c>
       <c r="B251" t="s">
         <v>5</v>
       </c>
@@ -16223,13 +16170,13 @@
         <v>15</v>
       </c>
       <c r="D251" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="E251" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F251" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G251" t="s">
         <v>19</v>
@@ -16271,12 +16218,12 @@
         <v>0.01</v>
       </c>
       <c r="X251" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="252" spans="1:24" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="252" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B252" t="s">
         <v>5</v>
@@ -16285,13 +16232,13 @@
         <v>15</v>
       </c>
       <c r="D252" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="E252" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F252" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G252" t="s">
         <v>19</v>
@@ -16333,12 +16280,12 @@
         <v>0.01</v>
       </c>
       <c r="X252" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="253" spans="1:24" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="253" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B253" t="s">
         <v>5</v>
@@ -16347,13 +16294,13 @@
         <v>15</v>
       </c>
       <c r="D253" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="E253" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F253" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G253" t="s">
         <v>19</v>
@@ -16395,12 +16342,12 @@
         <v>0.01</v>
       </c>
       <c r="X253" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="254" spans="1:24" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="254" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B254" t="s">
         <v>5</v>
@@ -16409,13 +16356,13 @@
         <v>15</v>
       </c>
       <c r="D254" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="E254" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F254" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G254" t="s">
         <v>19</v>
@@ -16457,12 +16404,12 @@
         <v>0.01</v>
       </c>
       <c r="X254" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="255" spans="1:24" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="255" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B255" t="s">
         <v>5</v>
@@ -16471,13 +16418,13 @@
         <v>15</v>
       </c>
       <c r="D255" t="s">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="E255" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F255" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G255" t="s">
         <v>19</v>
@@ -16519,12 +16466,12 @@
         <v>0.01</v>
       </c>
       <c r="X255" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="256" spans="1:24" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="256" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B256" t="s">
         <v>5</v>
@@ -16533,13 +16480,13 @@
         <v>15</v>
       </c>
       <c r="D256" t="s">
-        <v>180</v>
+        <v>273</v>
       </c>
       <c r="E256" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F256" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G256" t="s">
         <v>19</v>
@@ -16581,193 +16528,7 @@
         <v>0.01</v>
       </c>
       <c r="X256" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="257" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
-        <v>331</v>
-      </c>
-      <c r="B257" t="s">
-        <v>5</v>
-      </c>
-      <c r="C257" t="s">
-        <v>15</v>
-      </c>
-      <c r="D257" t="s">
-        <v>193</v>
-      </c>
-      <c r="E257" t="s">
-        <v>324</v>
-      </c>
-      <c r="F257" t="s">
-        <v>325</v>
-      </c>
-      <c r="G257" t="s">
-        <v>19</v>
-      </c>
-      <c r="L257" t="s">
-        <v>20</v>
-      </c>
-      <c r="M257">
-        <v>0.01</v>
-      </c>
-      <c r="N257">
-        <v>0.01</v>
-      </c>
-      <c r="O257">
-        <v>0.01</v>
-      </c>
-      <c r="P257">
-        <v>0.01</v>
-      </c>
-      <c r="Q257">
-        <v>0.01</v>
-      </c>
-      <c r="R257">
-        <v>0.01</v>
-      </c>
-      <c r="S257">
-        <v>0.01</v>
-      </c>
-      <c r="T257">
-        <v>0.01</v>
-      </c>
-      <c r="U257">
-        <v>0.01</v>
-      </c>
-      <c r="V257">
-        <v>0.01</v>
-      </c>
-      <c r="W257">
-        <v>0.01</v>
-      </c>
-      <c r="X257" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="258" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>332</v>
-      </c>
-      <c r="B258" t="s">
-        <v>5</v>
-      </c>
-      <c r="C258" t="s">
-        <v>15</v>
-      </c>
-      <c r="D258" t="s">
-        <v>211</v>
-      </c>
-      <c r="E258" t="s">
-        <v>324</v>
-      </c>
-      <c r="F258" t="s">
-        <v>325</v>
-      </c>
-      <c r="G258" t="s">
-        <v>19</v>
-      </c>
-      <c r="L258" t="s">
-        <v>20</v>
-      </c>
-      <c r="M258">
-        <v>0.01</v>
-      </c>
-      <c r="N258">
-        <v>0.01</v>
-      </c>
-      <c r="O258">
-        <v>0.01</v>
-      </c>
-      <c r="P258">
-        <v>0.01</v>
-      </c>
-      <c r="Q258">
-        <v>0.01</v>
-      </c>
-      <c r="R258">
-        <v>0.01</v>
-      </c>
-      <c r="S258">
-        <v>0.01</v>
-      </c>
-      <c r="T258">
-        <v>0.01</v>
-      </c>
-      <c r="U258">
-        <v>0.01</v>
-      </c>
-      <c r="V258">
-        <v>0.01</v>
-      </c>
-      <c r="W258">
-        <v>0.01</v>
-      </c>
-      <c r="X258" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="259" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>333</v>
-      </c>
-      <c r="B259" t="s">
-        <v>5</v>
-      </c>
-      <c r="C259" t="s">
-        <v>15</v>
-      </c>
-      <c r="D259" t="s">
-        <v>273</v>
-      </c>
-      <c r="E259" t="s">
-        <v>324</v>
-      </c>
-      <c r="F259" t="s">
-        <v>325</v>
-      </c>
-      <c r="G259" t="s">
-        <v>19</v>
-      </c>
-      <c r="L259" t="s">
-        <v>20</v>
-      </c>
-      <c r="M259">
-        <v>0.01</v>
-      </c>
-      <c r="N259">
-        <v>0.01</v>
-      </c>
-      <c r="O259">
-        <v>0.01</v>
-      </c>
-      <c r="P259">
-        <v>0.01</v>
-      </c>
-      <c r="Q259">
-        <v>0.01</v>
-      </c>
-      <c r="R259">
-        <v>0.01</v>
-      </c>
-      <c r="S259">
-        <v>0.01</v>
-      </c>
-      <c r="T259">
-        <v>0.01</v>
-      </c>
-      <c r="U259">
-        <v>0.01</v>
-      </c>
-      <c r="V259">
-        <v>0.01</v>
-      </c>
-      <c r="W259">
-        <v>0.01</v>
-      </c>
-      <c r="X259" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/csv/model/CIMS_market share limits/formula_CIMS_market share limits_BC.xlsx
+++ b/csv/model/CIMS_market share limits/formula_CIMS_market share limits_BC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\CIMS_market share limits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09B26E4-B3DC-498B-A11D-4B08A9E7F265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E094878-569E-4449-8601-FD47B752F7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C5F54F72-C0D3-4E77-B45B-06C58803EE69}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1999" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="314">
   <si>
     <t>&lt;-- Navigate by typing to search</t>
   </si>
@@ -972,6 +972,12 @@
   </si>
   <si>
     <t>CIMS.CAN.BC.Light Industrial.Methane Fuel</t>
+  </si>
+  <si>
+    <t>NG COGEN</t>
+  </si>
+  <si>
+    <t>NG COGEN Eff</t>
   </si>
 </sst>
 </file>
@@ -1343,13 +1349,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EF7876-A65A-4F7B-B389-FF1E7966B94D}">
-  <dimension ref="A1:X249"/>
+  <dimension ref="A1:X251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="C239" sqref="C239"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="112.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -3202,7 +3211,7 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -3211,13 +3220,13 @@
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E33" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
+        <v>312</v>
       </c>
       <c r="G33" t="s">
         <v>19</v>
@@ -3226,42 +3235,42 @@
         <v>20</v>
       </c>
       <c r="M33">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="N33">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="O33">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="P33">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="Q33">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="R33">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="S33">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="T33">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="U33">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="V33">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="W33">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -3270,13 +3279,13 @@
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
+        <v>313</v>
       </c>
       <c r="G34" t="s">
         <v>19</v>
@@ -3285,37 +3294,37 @@
         <v>20</v>
       </c>
       <c r="M34">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="N34">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="O34">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="P34">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="Q34">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="R34">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="S34">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="T34">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="U34">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="V34">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="W34">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -3335,7 +3344,7 @@
         <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G35" t="s">
         <v>19</v>
@@ -3379,7 +3388,7 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -3391,10 +3400,10 @@
         <v>74</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G36" t="s">
         <v>19</v>
@@ -3438,7 +3447,7 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
@@ -3450,10 +3459,10 @@
         <v>74</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G37" t="s">
         <v>19</v>
@@ -3497,7 +3506,7 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
@@ -3509,10 +3518,10 @@
         <v>74</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G38" t="s">
         <v>19</v>
@@ -3556,7 +3565,7 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
@@ -3568,10 +3577,10 @@
         <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G39" t="s">
         <v>19</v>
@@ -3630,7 +3639,7 @@
         <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
         <v>19</v>
@@ -3674,7 +3683,7 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -3686,10 +3695,10 @@
         <v>74</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
         <v>19</v>
@@ -3733,7 +3742,7 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -3745,10 +3754,10 @@
         <v>74</v>
       </c>
       <c r="E42" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
         <v>19</v>
@@ -3807,7 +3816,7 @@
         <v>35</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
         <v>19</v>
@@ -3851,7 +3860,7 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -3863,10 +3872,10 @@
         <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G44" t="s">
         <v>19</v>
@@ -3910,7 +3919,7 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -3925,7 +3934,7 @@
         <v>35</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
         <v>19</v>
@@ -3969,7 +3978,7 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -3984,7 +3993,7 @@
         <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
         <v>19</v>
@@ -4028,7 +4037,7 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -4043,7 +4052,7 @@
         <v>35</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
         <v>19</v>
@@ -4087,7 +4096,7 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -4102,7 +4111,7 @@
         <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G48" t="s">
         <v>19</v>
@@ -4146,7 +4155,7 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -4161,7 +4170,7 @@
         <v>35</v>
       </c>
       <c r="F49" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G49" t="s">
         <v>19</v>
@@ -4205,7 +4214,7 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
@@ -4217,10 +4226,10 @@
         <v>74</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F50" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s">
         <v>19</v>
@@ -4264,7 +4273,7 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
@@ -4276,10 +4285,10 @@
         <v>74</v>
       </c>
       <c r="E51" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F51" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s">
         <v>19</v>
@@ -4288,42 +4297,42 @@
         <v>20</v>
       </c>
       <c r="M51">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="N51">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="O51">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="P51">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="Q51">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="R51">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="S51">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="T51">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="U51">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="V51">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="W51">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -4335,10 +4344,10 @@
         <v>74</v>
       </c>
       <c r="E52" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="G52" t="s">
         <v>19</v>
@@ -4347,37 +4356,37 @@
         <v>20</v>
       </c>
       <c r="M52">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="N52">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="O52">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="P52">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Q52">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="R52">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="S52">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="T52">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="U52">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V52">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="W52">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
@@ -4397,51 +4406,51 @@
         <v>61</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G53" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="L53" t="s">
         <v>20</v>
       </c>
       <c r="M53">
-        <v>0.17</v>
+        <v>0.8</v>
       </c>
       <c r="N53">
-        <v>0.17</v>
+        <v>0.8</v>
       </c>
       <c r="O53">
-        <v>0.17</v>
+        <v>0.8</v>
       </c>
       <c r="P53">
-        <v>0.17</v>
+        <v>0.8</v>
       </c>
       <c r="Q53">
-        <v>0.17</v>
+        <v>0.8</v>
       </c>
       <c r="R53">
-        <v>0.17</v>
+        <v>0.8</v>
       </c>
       <c r="S53">
-        <v>0.17</v>
+        <v>0.8</v>
       </c>
       <c r="T53">
-        <v>0.17</v>
+        <v>0.8</v>
       </c>
       <c r="U53">
-        <v>0.17</v>
+        <v>0.8</v>
       </c>
       <c r="V53">
-        <v>0.17</v>
+        <v>0.8</v>
       </c>
       <c r="W53">
-        <v>0.17</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
@@ -4453,10 +4462,10 @@
         <v>74</v>
       </c>
       <c r="E54" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G54" t="s">
         <v>19</v>
@@ -4465,42 +4474,42 @@
         <v>20</v>
       </c>
       <c r="M54">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
       <c r="N54">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
       <c r="O54">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
       <c r="P54">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
       <c r="Q54">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
       <c r="R54">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
       <c r="S54">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
       <c r="T54">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
       <c r="U54">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
       <c r="V54">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
       <c r="W54">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
@@ -4512,49 +4521,49 @@
         <v>74</v>
       </c>
       <c r="E55" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G55" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="L55" t="s">
         <v>20</v>
       </c>
       <c r="M55">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="N55">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="O55">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="P55">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="Q55">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="R55">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="S55">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="T55">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="U55">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="V55">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="W55">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
@@ -4574,51 +4583,51 @@
         <v>66</v>
       </c>
       <c r="F56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G56" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="L56" t="s">
         <v>20</v>
       </c>
       <c r="M56">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="N56">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="O56">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="P56">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="Q56">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="R56">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="S56">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="T56">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="U56">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="V56">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="W56">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
@@ -4627,13 +4636,13 @@
         <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E57" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F57" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="G57" t="s">
         <v>19</v>
@@ -4642,42 +4651,42 @@
         <v>20</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="P57">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="Q57">
-        <v>9.9999999999989008E-4</v>
+        <v>0.35</v>
       </c>
       <c r="R57">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="S57">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="T57">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="U57">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="V57">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="W57">
-        <v>1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
@@ -4686,52 +4695,52 @@
         <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E58" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F58" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="G58" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="L58" t="s">
         <v>20</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q58">
-        <v>9.9999999999989008E-4</v>
+        <v>0.3</v>
       </c>
       <c r="R58">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="S58">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="T58">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="U58">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="V58">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="W58">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
@@ -4751,7 +4760,7 @@
         <v>71</v>
       </c>
       <c r="F59" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G59" t="s">
         <v>19</v>
@@ -4795,7 +4804,7 @@
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
@@ -4804,13 +4813,13 @@
         <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E60" t="s">
         <v>71</v>
       </c>
       <c r="F60" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G60" t="s">
         <v>19</v>
@@ -4854,7 +4863,7 @@
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
@@ -4863,13 +4872,13 @@
         <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E61" t="s">
         <v>71</v>
       </c>
       <c r="F61" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G61" t="s">
         <v>19</v>
@@ -4928,7 +4937,7 @@
         <v>71</v>
       </c>
       <c r="F62" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G62" t="s">
         <v>19</v>
@@ -4972,7 +4981,7 @@
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
@@ -4981,13 +4990,13 @@
         <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E63" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="F63" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G63" t="s">
         <v>19</v>
@@ -5031,7 +5040,7 @@
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
@@ -5040,13 +5049,13 @@
         <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E64" t="s">
         <v>71</v>
       </c>
       <c r="F64" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G64" t="s">
         <v>19</v>
@@ -5090,7 +5099,7 @@
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
@@ -5102,10 +5111,10 @@
         <v>97</v>
       </c>
       <c r="E65" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="F65" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G65" t="s">
         <v>19</v>
@@ -5149,7 +5158,7 @@
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
@@ -5161,10 +5170,10 @@
         <v>97</v>
       </c>
       <c r="E66" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="F66" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G66" t="s">
         <v>19</v>
@@ -5208,7 +5217,7 @@
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
@@ -5220,10 +5229,10 @@
         <v>97</v>
       </c>
       <c r="E67" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="F67" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G67" t="s">
         <v>19</v>
@@ -5267,7 +5276,7 @@
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
@@ -5279,10 +5288,10 @@
         <v>97</v>
       </c>
       <c r="E68" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F68" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G68" t="s">
         <v>19</v>
@@ -5291,42 +5300,42 @@
         <v>20</v>
       </c>
       <c r="M68">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N68">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O68">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="P68">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>0.25</v>
+        <v>9.9999999999989008E-4</v>
       </c>
       <c r="R68">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="S68">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="T68">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="U68">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="V68">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="W68">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
@@ -5338,10 +5347,10 @@
         <v>97</v>
       </c>
       <c r="E69" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F69" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G69" t="s">
         <v>19</v>
@@ -5350,42 +5359,42 @@
         <v>20</v>
       </c>
       <c r="M69">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N69">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O69">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="P69">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>0.25</v>
+        <v>9.9999999999989008E-4</v>
       </c>
       <c r="R69">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="S69">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="T69">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="U69">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="V69">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="W69">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
@@ -5397,10 +5406,10 @@
         <v>97</v>
       </c>
       <c r="E70" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="F70" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="G70" t="s">
         <v>19</v>
@@ -5409,42 +5418,42 @@
         <v>20</v>
       </c>
       <c r="M70">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N70">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="P70">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q70">
-        <v>9.9999999999989008E-4</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="S70">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="T70">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="U70">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="V70">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="W70">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
@@ -5456,10 +5465,10 @@
         <v>97</v>
       </c>
       <c r="E71" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="F71" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G71" t="s">
         <v>19</v>
@@ -5468,37 +5477,37 @@
         <v>20</v>
       </c>
       <c r="M71">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N71">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="P71">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q71">
-        <v>9.9999999999989008E-4</v>
+        <v>0.25</v>
       </c>
       <c r="R71">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="S71">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="T71">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="U71">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="V71">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="W71">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
@@ -5518,7 +5527,7 @@
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="G72" t="s">
         <v>19</v>
@@ -5527,37 +5536,37 @@
         <v>20</v>
       </c>
       <c r="M72">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N72">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="O72">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="P72">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>0.05</v>
+        <v>9.9999999999989008E-4</v>
       </c>
       <c r="R72">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="S72">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="T72">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="U72">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="V72">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="W72">
-        <v>0.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
@@ -5577,7 +5586,7 @@
         <v>71</v>
       </c>
       <c r="F73" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G73" t="s">
         <v>19</v>
@@ -5586,37 +5595,37 @@
         <v>20</v>
       </c>
       <c r="M73">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N73">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="O73">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="P73">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>0.05</v>
+        <v>9.9999999999989008E-4</v>
       </c>
       <c r="R73">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="S73">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="T73">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="U73">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="V73">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="W73">
-        <v>0.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
@@ -5636,7 +5645,7 @@
         <v>71</v>
       </c>
       <c r="F74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G74" t="s">
         <v>19</v>
@@ -5645,37 +5654,37 @@
         <v>20</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="P74">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q74">
-        <v>9.9999999999989008E-4</v>
+        <v>0.05</v>
       </c>
       <c r="R74">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="S74">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="T74">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="U74">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="V74">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="W74">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
@@ -5695,7 +5704,7 @@
         <v>71</v>
       </c>
       <c r="F75" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="G75" t="s">
         <v>19</v>
@@ -5704,42 +5713,42 @@
         <v>20</v>
       </c>
       <c r="M75">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="N75">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="P75">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q75">
-        <v>9.9999999999989008E-4</v>
+        <v>0.05</v>
       </c>
       <c r="R75">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="S75">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="T75">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="U75">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="V75">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="W75">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
@@ -5751,54 +5760,54 @@
         <v>97</v>
       </c>
       <c r="E76" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="F76" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G76" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="L76" t="s">
         <v>20</v>
       </c>
       <c r="M76">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N76">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O76">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P76">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>0.1</v>
+        <v>9.9999999999989008E-4</v>
       </c>
       <c r="R76">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="S76">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="T76">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="U76">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="V76">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="W76">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
@@ -5810,10 +5819,10 @@
         <v>97</v>
       </c>
       <c r="E77" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="G77" t="s">
         <v>19</v>
@@ -5822,42 +5831,42 @@
         <v>20</v>
       </c>
       <c r="M77">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N77">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O77">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P77">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>0.3</v>
+        <v>9.9999999999989008E-4</v>
       </c>
       <c r="R77">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="S77">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="T77">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="U77">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="V77">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="W77">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
@@ -5869,49 +5878,49 @@
         <v>97</v>
       </c>
       <c r="E78" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="F78" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G78" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="L78" t="s">
         <v>20</v>
       </c>
       <c r="M78">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N78">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="O78">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="P78">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="Q78">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="R78">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="S78">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="T78">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="U78">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="V78">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="W78">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
@@ -5931,7 +5940,7 @@
         <v>22</v>
       </c>
       <c r="F79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G79" t="s">
         <v>19</v>
@@ -5990,7 +5999,7 @@
         <v>22</v>
       </c>
       <c r="F80" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="G80" t="s">
         <v>19</v>
@@ -6034,7 +6043,7 @@
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
@@ -6046,10 +6055,10 @@
         <v>97</v>
       </c>
       <c r="E81" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G81" t="s">
         <v>19</v>
@@ -6093,7 +6102,7 @@
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
@@ -6105,10 +6114,10 @@
         <v>97</v>
       </c>
       <c r="E82" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G82" t="s">
         <v>19</v>
@@ -6167,7 +6176,7 @@
         <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
         <v>19</v>
@@ -6211,7 +6220,7 @@
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
@@ -6223,10 +6232,10 @@
         <v>97</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
         <v>19</v>
@@ -6270,7 +6279,7 @@
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
@@ -6282,10 +6291,10 @@
         <v>97</v>
       </c>
       <c r="E85" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
         <v>19</v>
@@ -6344,7 +6353,7 @@
         <v>35</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
         <v>19</v>
@@ -6388,7 +6397,7 @@
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
@@ -6400,10 +6409,10 @@
         <v>97</v>
       </c>
       <c r="E87" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G87" t="s">
         <v>19</v>
@@ -6447,7 +6456,7 @@
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B88" t="s">
         <v>5</v>
@@ -6462,7 +6471,7 @@
         <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
         <v>19</v>
@@ -6506,7 +6515,7 @@
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -6521,7 +6530,7 @@
         <v>30</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G89" t="s">
         <v>19</v>
@@ -6565,7 +6574,7 @@
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
@@ -6580,7 +6589,7 @@
         <v>35</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
         <v>19</v>
@@ -6624,7 +6633,7 @@
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
@@ -6639,7 +6648,7 @@
         <v>30</v>
       </c>
       <c r="F91" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G91" t="s">
         <v>19</v>
@@ -6683,7 +6692,7 @@
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
@@ -6698,7 +6707,7 @@
         <v>35</v>
       </c>
       <c r="F92" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G92" t="s">
         <v>19</v>
@@ -6742,7 +6751,7 @@
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
@@ -6754,10 +6763,10 @@
         <v>97</v>
       </c>
       <c r="E93" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F93" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G93" t="s">
         <v>19</v>
@@ -6766,42 +6775,42 @@
         <v>20</v>
       </c>
       <c r="M93">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="N93">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="O93">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="P93">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="Q93">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="R93">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="S93">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="T93">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="U93">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="V93">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="W93">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B94" t="s">
         <v>5</v>
@@ -6813,10 +6822,10 @@
         <v>97</v>
       </c>
       <c r="E94" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F94" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G94" t="s">
         <v>19</v>
@@ -6825,42 +6834,42 @@
         <v>20</v>
       </c>
       <c r="M94">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="N94">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="O94">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="P94">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="Q94">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="R94">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="S94">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="T94">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="U94">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="V94">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="W94">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
@@ -6872,10 +6881,10 @@
         <v>97</v>
       </c>
       <c r="E95" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F95" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G95" t="s">
         <v>19</v>
@@ -6919,7 +6928,7 @@
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B96" t="s">
         <v>5</v>
@@ -6931,10 +6940,10 @@
         <v>97</v>
       </c>
       <c r="E96" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F96" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G96" t="s">
         <v>19</v>
@@ -6978,7 +6987,7 @@
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
@@ -6990,10 +6999,10 @@
         <v>97</v>
       </c>
       <c r="E97" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F97" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="G97" t="s">
         <v>19</v>
@@ -7002,42 +7011,42 @@
         <v>20</v>
       </c>
       <c r="M97">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="N97">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O97">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="P97">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="Q97">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="R97">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="S97">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="T97">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="U97">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="V97">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="W97">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
@@ -7049,10 +7058,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F98" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G98" t="s">
         <v>19</v>
@@ -7096,7 +7105,7 @@
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B99" t="s">
         <v>5</v>
@@ -7108,10 +7117,10 @@
         <v>97</v>
       </c>
       <c r="E99" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F99" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G99" t="s">
         <v>19</v>
@@ -7155,7 +7164,7 @@
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B100" t="s">
         <v>5</v>
@@ -7164,13 +7173,13 @@
         <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="E100" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="F100" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="G100" t="s">
         <v>19</v>
@@ -7179,42 +7188,42 @@
         <v>20</v>
       </c>
       <c r="M100">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="N100">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="O100">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="P100">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Q100">
-        <v>9.9999999999989008E-4</v>
+        <v>0.6</v>
       </c>
       <c r="R100">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="S100">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="T100">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="U100">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="V100">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="W100">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
@@ -7223,13 +7232,13 @@
         <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="E101" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="F101" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G101" t="s">
         <v>19</v>
@@ -7238,42 +7247,42 @@
         <v>20</v>
       </c>
       <c r="M101">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N101">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O101">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P101">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q101">
-        <v>9.9999999999989008E-4</v>
+        <v>0.5</v>
       </c>
       <c r="R101">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S101">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T101">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U101">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V101">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W101">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
@@ -7285,10 +7294,10 @@
         <v>138</v>
       </c>
       <c r="E102" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F102" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G102" t="s">
         <v>19</v>
@@ -7332,7 +7341,7 @@
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
@@ -7344,10 +7353,10 @@
         <v>138</v>
       </c>
       <c r="E103" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F103" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G103" t="s">
         <v>19</v>
@@ -7356,42 +7365,42 @@
         <v>20</v>
       </c>
       <c r="M103">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N103">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="O103">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="P103">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <v>0.05</v>
+        <v>9.9999999999989008E-4</v>
       </c>
       <c r="R103">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="S103">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="T103">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="U103">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="V103">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="W103">
-        <v>0.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
@@ -7403,10 +7412,10 @@
         <v>138</v>
       </c>
       <c r="E104" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F104" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G104" t="s">
         <v>19</v>
@@ -7465,7 +7474,7 @@
         <v>146</v>
       </c>
       <c r="F105" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G105" t="s">
         <v>19</v>
@@ -7474,42 +7483,42 @@
         <v>20</v>
       </c>
       <c r="M105">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="N105">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="O105">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="P105">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q105">
-        <v>9.9999999999989008E-4</v>
+        <v>0.05</v>
       </c>
       <c r="R105">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="S105">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="T105">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="U105">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="V105">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="W105">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B106" t="s">
         <v>5</v>
@@ -7521,10 +7530,10 @@
         <v>138</v>
       </c>
       <c r="E106" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="F106" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="G106" t="s">
         <v>19</v>
@@ -7533,42 +7542,42 @@
         <v>20</v>
       </c>
       <c r="M106">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N106">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O106">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P106">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Q106">
-        <v>0.3</v>
+        <v>9.9999999999989008E-4</v>
       </c>
       <c r="R106">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="S106">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="T106">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="U106">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="V106">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="W106">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
@@ -7580,10 +7589,10 @@
         <v>138</v>
       </c>
       <c r="E107" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="F107" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="G107" t="s">
         <v>19</v>
@@ -7592,37 +7601,37 @@
         <v>20</v>
       </c>
       <c r="M107">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N107">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O107">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P107">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Q107">
-        <v>0.3</v>
+        <v>9.9999999999989008E-4</v>
       </c>
       <c r="R107">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="S107">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="T107">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="U107">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="V107">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="W107">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.25">
@@ -7642,7 +7651,7 @@
         <v>22</v>
       </c>
       <c r="F108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G108" t="s">
         <v>19</v>
@@ -7701,7 +7710,7 @@
         <v>22</v>
       </c>
       <c r="F109" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="G109" t="s">
         <v>19</v>
@@ -7745,7 +7754,7 @@
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B110" t="s">
         <v>5</v>
@@ -7757,10 +7766,10 @@
         <v>138</v>
       </c>
       <c r="E110" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F110" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G110" t="s">
         <v>19</v>
@@ -7804,7 +7813,7 @@
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
@@ -7816,10 +7825,10 @@
         <v>138</v>
       </c>
       <c r="E111" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F111" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G111" t="s">
         <v>19</v>
@@ -7878,7 +7887,7 @@
         <v>18</v>
       </c>
       <c r="F112" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="G112" t="s">
         <v>19</v>
@@ -7922,7 +7931,7 @@
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
@@ -7934,10 +7943,10 @@
         <v>138</v>
       </c>
       <c r="E113" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G113" t="s">
         <v>19</v>
@@ -7981,7 +7990,7 @@
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
@@ -7993,10 +8002,10 @@
         <v>138</v>
       </c>
       <c r="E114" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="G114" t="s">
         <v>19</v>
@@ -8055,7 +8064,7 @@
         <v>30</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G115" t="s">
         <v>19</v>
@@ -8099,7 +8108,7 @@
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B116" t="s">
         <v>5</v>
@@ -8111,10 +8120,10 @@
         <v>138</v>
       </c>
       <c r="E116" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F116" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G116" t="s">
         <v>19</v>
@@ -8158,7 +8167,7 @@
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
@@ -8170,10 +8179,10 @@
         <v>138</v>
       </c>
       <c r="E117" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G117" t="s">
         <v>19</v>
@@ -8232,7 +8241,7 @@
         <v>35</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
         <v>19</v>
@@ -8276,7 +8285,7 @@
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B119" t="s">
         <v>5</v>
@@ -8288,10 +8297,10 @@
         <v>138</v>
       </c>
       <c r="E119" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F119" t="s">
-        <v>156</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
         <v>19</v>
@@ -8300,42 +8309,42 @@
         <v>20</v>
       </c>
       <c r="M119">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="N119">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="O119">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="P119">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="Q119">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="R119">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="S119">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="T119">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="U119">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="V119">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="W119">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B120" t="s">
         <v>5</v>
@@ -8347,10 +8356,10 @@
         <v>138</v>
       </c>
       <c r="E120" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
         <v>19</v>
@@ -8394,7 +8403,7 @@
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
@@ -8406,7 +8415,7 @@
         <v>138</v>
       </c>
       <c r="E121" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F121" t="s">
         <v>156</v>
@@ -8453,7 +8462,7 @@
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
@@ -8465,7 +8474,7 @@
         <v>138</v>
       </c>
       <c r="E122" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F122" t="s">
         <v>37</v>
@@ -8512,7 +8521,7 @@
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
@@ -8524,10 +8533,10 @@
         <v>138</v>
       </c>
       <c r="E123" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F123" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="G123" t="s">
         <v>19</v>
@@ -8536,42 +8545,42 @@
         <v>20</v>
       </c>
       <c r="M123">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="N123">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="O123">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="P123">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="Q123">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="R123">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="S123">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="T123">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="U123">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="V123">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="W123">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
@@ -8586,7 +8595,7 @@
         <v>35</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
         <v>19</v>
@@ -8630,7 +8639,7 @@
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
@@ -8645,7 +8654,7 @@
         <v>30</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G125" t="s">
         <v>19</v>
@@ -8689,7 +8698,7 @@
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B126" t="s">
         <v>5</v>
@@ -8704,7 +8713,7 @@
         <v>35</v>
       </c>
       <c r="F126" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G126" t="s">
         <v>19</v>
@@ -8748,7 +8757,7 @@
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B127" t="s">
         <v>5</v>
@@ -8760,10 +8769,10 @@
         <v>138</v>
       </c>
       <c r="E127" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F127" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G127" t="s">
         <v>19</v>
@@ -8772,42 +8781,42 @@
         <v>20</v>
       </c>
       <c r="M127">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N127">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="O127">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="P127">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="Q127">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="R127">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="S127">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="T127">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="U127">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="V127">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="W127">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
@@ -8819,54 +8828,54 @@
         <v>138</v>
       </c>
       <c r="E128" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F128" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="G128" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="L128" t="s">
         <v>20</v>
       </c>
       <c r="M128">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="N128">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="O128">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="P128">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="Q128">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="R128">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="S128">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="T128">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="U128">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="V128">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="W128">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
@@ -8878,54 +8887,54 @@
         <v>138</v>
       </c>
       <c r="E129" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F129" t="s">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="G129" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="L129" t="s">
         <v>20</v>
       </c>
       <c r="M129">
-        <v>0.16</v>
+        <v>0.5</v>
       </c>
       <c r="N129">
-        <v>0.16</v>
+        <v>0.5</v>
       </c>
       <c r="O129">
-        <v>0.16</v>
+        <v>0.5</v>
       </c>
       <c r="P129">
-        <v>0.16</v>
+        <v>0.5</v>
       </c>
       <c r="Q129">
-        <v>0.16</v>
+        <v>0.5</v>
       </c>
       <c r="R129">
-        <v>0.16</v>
+        <v>0.5</v>
       </c>
       <c r="S129">
-        <v>0.16</v>
+        <v>0.5</v>
       </c>
       <c r="T129">
-        <v>0.16</v>
+        <v>0.5</v>
       </c>
       <c r="U129">
-        <v>0.16</v>
+        <v>0.5</v>
       </c>
       <c r="V129">
-        <v>0.16</v>
+        <v>0.5</v>
       </c>
       <c r="W129">
-        <v>0.16</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
@@ -8934,57 +8943,57 @@
         <v>15</v>
       </c>
       <c r="D130" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="E130" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="F130" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="G130" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="L130" t="s">
         <v>20</v>
       </c>
       <c r="M130">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="N130">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="O130">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="P130">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="Q130">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="R130">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="S130">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="T130">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="U130">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="V130">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="W130">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B131" t="s">
         <v>5</v>
@@ -8993,57 +9002,57 @@
         <v>15</v>
       </c>
       <c r="D131" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="E131" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="F131" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="G131" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="L131" t="s">
         <v>20</v>
       </c>
       <c r="M131">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="N131">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="O131">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="P131">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="Q131">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="R131">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="S131">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="T131">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="U131">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="V131">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="W131">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B132" t="s">
         <v>5</v>
@@ -9055,10 +9064,10 @@
         <v>166</v>
       </c>
       <c r="E132" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F132" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G132" t="s">
         <v>19</v>
@@ -9102,7 +9111,7 @@
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
@@ -9114,10 +9123,10 @@
         <v>166</v>
       </c>
       <c r="E133" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F133" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G133" t="s">
         <v>19</v>
@@ -9161,7 +9170,7 @@
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
@@ -9173,10 +9182,10 @@
         <v>166</v>
       </c>
       <c r="E134" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G134" t="s">
         <v>19</v>
@@ -9220,7 +9229,7 @@
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
@@ -9232,10 +9241,10 @@
         <v>166</v>
       </c>
       <c r="E135" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G135" t="s">
         <v>19</v>
@@ -9279,7 +9288,7 @@
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B136" t="s">
         <v>5</v>
@@ -9294,7 +9303,7 @@
         <v>30</v>
       </c>
       <c r="F136" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G136" t="s">
         <v>19</v>
@@ -9338,7 +9347,7 @@
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
@@ -9353,7 +9362,7 @@
         <v>35</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G137" t="s">
         <v>19</v>
@@ -9397,7 +9406,7 @@
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
@@ -9412,7 +9421,7 @@
         <v>30</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
         <v>19</v>
@@ -9456,7 +9465,7 @@
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
@@ -9471,7 +9480,7 @@
         <v>35</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G139" t="s">
         <v>19</v>
@@ -9515,7 +9524,7 @@
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B140" t="s">
         <v>5</v>
@@ -9530,7 +9539,7 @@
         <v>30</v>
       </c>
       <c r="F140" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
         <v>19</v>
@@ -9574,7 +9583,7 @@
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
@@ -9589,7 +9598,7 @@
         <v>35</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
         <v>19</v>
@@ -9633,7 +9642,7 @@
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
@@ -9645,10 +9654,10 @@
         <v>166</v>
       </c>
       <c r="E142" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F142" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
         <v>19</v>
@@ -9657,42 +9666,42 @@
         <v>20</v>
       </c>
       <c r="M142">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="N142">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="O142">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="P142">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="Q142">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="R142">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="S142">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="T142">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="U142">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="V142">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="W142">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
@@ -9704,10 +9713,10 @@
         <v>166</v>
       </c>
       <c r="E143" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="F143" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
         <v>19</v>
@@ -9716,42 +9725,42 @@
         <v>20</v>
       </c>
       <c r="M143">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="N143">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="O143">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="P143">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="Q143">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="R143">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="S143">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="T143">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="U143">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="V143">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="W143">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
@@ -9763,10 +9772,10 @@
         <v>166</v>
       </c>
       <c r="E144" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F144" t="s">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="G144" t="s">
         <v>19</v>
@@ -9810,7 +9819,7 @@
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
@@ -9819,13 +9828,13 @@
         <v>15</v>
       </c>
       <c r="D145" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E145" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F145" t="s">
-        <v>180</v>
+        <v>67</v>
       </c>
       <c r="G145" t="s">
         <v>19</v>
@@ -9834,42 +9843,42 @@
         <v>20</v>
       </c>
       <c r="M145">
-        <v>1.2500000000000001E-2</v>
+        <v>0.6</v>
       </c>
       <c r="N145">
-        <v>1.2500000000000001E-2</v>
+        <v>0.6</v>
       </c>
       <c r="O145">
-        <v>1.2500000000000001E-2</v>
+        <v>0.6</v>
       </c>
       <c r="P145">
-        <v>1.2500000000000001E-2</v>
+        <v>0.6</v>
       </c>
       <c r="Q145">
-        <v>1.2500000000000001E-2</v>
+        <v>0.6</v>
       </c>
       <c r="R145">
-        <v>1.2500000000000001E-2</v>
+        <v>0.6</v>
       </c>
       <c r="S145">
-        <v>1.2500000000000001E-2</v>
+        <v>0.6</v>
       </c>
       <c r="T145">
-        <v>1.2500000000000001E-2</v>
+        <v>0.6</v>
       </c>
       <c r="U145">
-        <v>1.2500000000000001E-2</v>
+        <v>0.6</v>
       </c>
       <c r="V145">
-        <v>1.2500000000000001E-2</v>
+        <v>0.6</v>
       </c>
       <c r="W145">
-        <v>1.2500000000000001E-2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
@@ -9878,13 +9887,13 @@
         <v>15</v>
       </c>
       <c r="D146" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E146" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F146" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="G146" t="s">
         <v>19</v>
@@ -9893,37 +9902,37 @@
         <v>20</v>
       </c>
       <c r="M146">
-        <v>1.2500000000000001E-2</v>
+        <v>0.16</v>
       </c>
       <c r="N146">
-        <v>1.2500000000000001E-2</v>
+        <v>0.16</v>
       </c>
       <c r="O146">
-        <v>1.2500000000000001E-2</v>
+        <v>0.16</v>
       </c>
       <c r="P146">
-        <v>1.2500000000000001E-2</v>
+        <v>0.16</v>
       </c>
       <c r="Q146">
-        <v>1.2500000000000001E-2</v>
+        <v>0.16</v>
       </c>
       <c r="R146">
-        <v>1.2500000000000001E-2</v>
+        <v>0.16</v>
       </c>
       <c r="S146">
-        <v>1.2500000000000001E-2</v>
+        <v>0.16</v>
       </c>
       <c r="T146">
-        <v>1.2500000000000001E-2</v>
+        <v>0.16</v>
       </c>
       <c r="U146">
-        <v>1.2500000000000001E-2</v>
+        <v>0.16</v>
       </c>
       <c r="V146">
-        <v>1.2500000000000001E-2</v>
+        <v>0.16</v>
       </c>
       <c r="W146">
-        <v>1.2500000000000001E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.25">
@@ -9943,7 +9952,7 @@
         <v>71</v>
       </c>
       <c r="F147" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G147" t="s">
         <v>19</v>
@@ -10002,7 +10011,7 @@
         <v>71</v>
       </c>
       <c r="F148" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G148" t="s">
         <v>19</v>
@@ -10061,7 +10070,7 @@
         <v>71</v>
       </c>
       <c r="F149" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G149" t="s">
         <v>19</v>
@@ -10070,37 +10079,37 @@
         <v>20</v>
       </c>
       <c r="M149">
-        <v>0</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="N149">
-        <v>0</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="O149">
-        <v>0</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="P149">
-        <v>0</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="Q149">
-        <v>9.9999999999989008E-4</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="R149">
-        <v>1</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="S149">
-        <v>1</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="T149">
-        <v>1</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="U149">
-        <v>1</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="V149">
-        <v>1</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="W149">
-        <v>1</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.25">
@@ -10120,7 +10129,7 @@
         <v>71</v>
       </c>
       <c r="F150" t="s">
-        <v>94</v>
+        <v>183</v>
       </c>
       <c r="G150" t="s">
         <v>19</v>
@@ -10129,37 +10138,37 @@
         <v>20</v>
       </c>
       <c r="M150">
-        <v>0</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="N150">
-        <v>0</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="O150">
-        <v>0</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="P150">
-        <v>0</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="Q150">
-        <v>9.9999999999989008E-4</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="R150">
-        <v>1</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="S150">
-        <v>1</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="T150">
-        <v>1</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="U150">
-        <v>1</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="V150">
-        <v>1</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="W150">
-        <v>1</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.25">
@@ -10179,7 +10188,7 @@
         <v>71</v>
       </c>
       <c r="F151" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="G151" t="s">
         <v>19</v>
@@ -10188,37 +10197,37 @@
         <v>20</v>
       </c>
       <c r="M151">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N151">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="O151">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="P151">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="Q151">
-        <v>0.05</v>
+        <v>9.9999999999989008E-4</v>
       </c>
       <c r="R151">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="S151">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="T151">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="U151">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="V151">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="W151">
-        <v>0.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.25">
@@ -10238,7 +10247,7 @@
         <v>71</v>
       </c>
       <c r="F152" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="G152" t="s">
         <v>19</v>
@@ -10247,37 +10256,37 @@
         <v>20</v>
       </c>
       <c r="M152">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N152">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="O152">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="P152">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="Q152">
-        <v>0.05</v>
+        <v>9.9999999999989008E-4</v>
       </c>
       <c r="R152">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="S152">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="T152">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="U152">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="V152">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="W152">
-        <v>0.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.25">
@@ -10297,7 +10306,7 @@
         <v>71</v>
       </c>
       <c r="F153" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="G153" t="s">
         <v>19</v>
@@ -10306,42 +10315,42 @@
         <v>20</v>
       </c>
       <c r="M153">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="N153">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="O153">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="P153">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q153">
-        <v>9.9999999999989008E-4</v>
+        <v>0.05</v>
       </c>
       <c r="R153">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="S153">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="T153">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="U153">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="V153">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="W153">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
@@ -10353,10 +10362,10 @@
         <v>179</v>
       </c>
       <c r="E154" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="F154" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="G154" t="s">
         <v>19</v>
@@ -10365,42 +10374,42 @@
         <v>20</v>
       </c>
       <c r="M154">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="N154">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="O154">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="P154">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="Q154">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="R154">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="S154">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="T154">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="U154">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="V154">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="W154">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B155" t="s">
         <v>5</v>
@@ -10412,10 +10421,10 @@
         <v>179</v>
       </c>
       <c r="E155" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="F155" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="G155" t="s">
         <v>19</v>
@@ -10424,42 +10433,42 @@
         <v>20</v>
       </c>
       <c r="M155">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N155">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O155">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P155">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Q155">
-        <v>0.3</v>
+        <v>9.9999999999989008E-4</v>
       </c>
       <c r="R155">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="S155">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="T155">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="U155">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="V155">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="W155">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B156" t="s">
         <v>5</v>
@@ -10471,10 +10480,10 @@
         <v>179</v>
       </c>
       <c r="E156" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F156" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G156" t="s">
         <v>19</v>
@@ -10518,7 +10527,7 @@
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
@@ -10530,10 +10539,10 @@
         <v>179</v>
       </c>
       <c r="E157" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F157" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G157" t="s">
         <v>19</v>
@@ -10577,7 +10586,7 @@
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B158" t="s">
         <v>5</v>
@@ -10589,10 +10598,10 @@
         <v>179</v>
       </c>
       <c r="E158" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G158" t="s">
         <v>19</v>
@@ -10636,7 +10645,7 @@
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B159" t="s">
         <v>5</v>
@@ -10648,10 +10657,10 @@
         <v>179</v>
       </c>
       <c r="E159" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G159" t="s">
         <v>19</v>
@@ -10710,7 +10719,7 @@
         <v>30</v>
       </c>
       <c r="F160" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G160" t="s">
         <v>19</v>
@@ -10754,7 +10763,7 @@
     </row>
     <row r="161" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B161" t="s">
         <v>5</v>
@@ -10766,10 +10775,10 @@
         <v>179</v>
       </c>
       <c r="E161" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G161" t="s">
         <v>19</v>
@@ -10813,7 +10822,7 @@
     </row>
     <row r="162" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
@@ -10825,10 +10834,10 @@
         <v>179</v>
       </c>
       <c r="E162" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F162" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G162" t="s">
         <v>19</v>
@@ -10887,7 +10896,7 @@
         <v>35</v>
       </c>
       <c r="F163" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G163" t="s">
         <v>19</v>
@@ -10931,7 +10940,7 @@
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
@@ -10943,10 +10952,10 @@
         <v>179</v>
       </c>
       <c r="E164" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F164" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G164" t="s">
         <v>19</v>
@@ -10990,7 +10999,7 @@
     </row>
     <row r="165" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
@@ -11005,7 +11014,7 @@
         <v>35</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G165" t="s">
         <v>19</v>
@@ -11049,7 +11058,7 @@
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B166" t="s">
         <v>5</v>
@@ -11064,7 +11073,7 @@
         <v>30</v>
       </c>
       <c r="F166" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G166" t="s">
         <v>19</v>
@@ -11108,7 +11117,7 @@
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B167" t="s">
         <v>5</v>
@@ -11123,7 +11132,7 @@
         <v>35</v>
       </c>
       <c r="F167" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G167" t="s">
         <v>19</v>
@@ -11167,7 +11176,7 @@
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B168" t="s">
         <v>5</v>
@@ -11182,7 +11191,7 @@
         <v>30</v>
       </c>
       <c r="F168" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G168" t="s">
         <v>19</v>
@@ -11226,7 +11235,7 @@
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
@@ -11241,7 +11250,7 @@
         <v>35</v>
       </c>
       <c r="F169" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G169" t="s">
         <v>19</v>
@@ -11285,7 +11294,7 @@
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
@@ -11297,10 +11306,10 @@
         <v>179</v>
       </c>
       <c r="E170" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F170" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G170" t="s">
         <v>19</v>
@@ -11344,7 +11353,7 @@
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
@@ -11353,13 +11362,13 @@
         <v>15</v>
       </c>
       <c r="D171" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="E171" t="s">
-        <v>198</v>
+        <v>35</v>
       </c>
       <c r="F171" t="s">
-        <v>199</v>
+        <v>43</v>
       </c>
       <c r="G171" t="s">
         <v>19</v>
@@ -11368,42 +11377,42 @@
         <v>20</v>
       </c>
       <c r="M171">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="N171">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="O171">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="P171">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="Q171">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="R171">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="S171">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="T171">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="U171">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="V171">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="W171">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="172" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
@@ -11412,13 +11421,13 @@
         <v>15</v>
       </c>
       <c r="D172" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="E172" t="s">
-        <v>198</v>
+        <v>46</v>
       </c>
       <c r="F172" t="s">
-        <v>200</v>
+        <v>47</v>
       </c>
       <c r="G172" t="s">
         <v>19</v>
@@ -11427,42 +11436,42 @@
         <v>20</v>
       </c>
       <c r="M172">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="N172">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="O172">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="P172">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="Q172">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="R172">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="S172">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="T172">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="U172">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="V172">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="W172">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
@@ -11474,54 +11483,54 @@
         <v>197</v>
       </c>
       <c r="E173" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F173" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G173" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="L173" t="s">
         <v>20</v>
       </c>
       <c r="M173">
-        <v>0.99</v>
+        <v>0.6</v>
       </c>
       <c r="N173">
-        <v>0.99</v>
+        <v>0.6</v>
       </c>
       <c r="O173">
-        <v>0.99</v>
+        <v>0.6</v>
       </c>
       <c r="P173">
-        <v>0.99</v>
+        <v>0.6</v>
       </c>
       <c r="Q173">
-        <v>0.99</v>
+        <v>0.6</v>
       </c>
       <c r="R173">
-        <v>0.99</v>
+        <v>0.6</v>
       </c>
       <c r="S173">
-        <v>0.99</v>
+        <v>0.6</v>
       </c>
       <c r="T173">
-        <v>0.99</v>
+        <v>0.6</v>
       </c>
       <c r="U173">
-        <v>0.99</v>
+        <v>0.6</v>
       </c>
       <c r="V173">
-        <v>0.99</v>
+        <v>0.6</v>
       </c>
       <c r="W173">
-        <v>0.99</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="174" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B174" t="s">
         <v>5</v>
@@ -11533,10 +11542,10 @@
         <v>197</v>
       </c>
       <c r="E174" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F174" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G174" t="s">
         <v>19</v>
@@ -11545,42 +11554,42 @@
         <v>20</v>
       </c>
       <c r="M174">
-        <v>0.6</v>
+        <v>0.05</v>
       </c>
       <c r="N174">
-        <v>0.6</v>
+        <v>0.05</v>
       </c>
       <c r="O174">
-        <v>0.6</v>
+        <v>0.05</v>
       </c>
       <c r="P174">
-        <v>0.6</v>
+        <v>0.05</v>
       </c>
       <c r="Q174">
-        <v>0.6</v>
+        <v>0.05</v>
       </c>
       <c r="R174">
-        <v>0.6</v>
+        <v>0.05</v>
       </c>
       <c r="S174">
-        <v>0.6</v>
+        <v>0.05</v>
       </c>
       <c r="T174">
-        <v>0.6</v>
+        <v>0.05</v>
       </c>
       <c r="U174">
-        <v>0.6</v>
+        <v>0.05</v>
       </c>
       <c r="V174">
-        <v>0.6</v>
+        <v>0.05</v>
       </c>
       <c r="W174">
-        <v>0.6</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="175" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B175" t="s">
         <v>5</v>
@@ -11592,54 +11601,54 @@
         <v>197</v>
       </c>
       <c r="E175" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F175" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G175" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="L175" t="s">
         <v>20</v>
       </c>
       <c r="M175">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
       <c r="N175">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
       <c r="O175">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
       <c r="P175">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
       <c r="Q175">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
       <c r="R175">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
       <c r="S175">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
       <c r="T175">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
       <c r="U175">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
       <c r="V175">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
       <c r="W175">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
@@ -11651,54 +11660,54 @@
         <v>197</v>
       </c>
       <c r="E176" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F176" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G176" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="L176" t="s">
         <v>20</v>
       </c>
       <c r="M176">
-        <v>0.99</v>
+        <v>0.6</v>
       </c>
       <c r="N176">
-        <v>0.99</v>
+        <v>0.6</v>
       </c>
       <c r="O176">
-        <v>0.99</v>
+        <v>0.6</v>
       </c>
       <c r="P176">
-        <v>0.99</v>
+        <v>0.6</v>
       </c>
       <c r="Q176">
-        <v>0.99</v>
+        <v>0.6</v>
       </c>
       <c r="R176">
-        <v>0.99</v>
+        <v>0.6</v>
       </c>
       <c r="S176">
-        <v>0.99</v>
+        <v>0.6</v>
       </c>
       <c r="T176">
-        <v>0.99</v>
+        <v>0.6</v>
       </c>
       <c r="U176">
-        <v>0.99</v>
+        <v>0.6</v>
       </c>
       <c r="V176">
-        <v>0.99</v>
+        <v>0.6</v>
       </c>
       <c r="W176">
-        <v>0.99</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="177" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
@@ -11710,54 +11719,54 @@
         <v>197</v>
       </c>
       <c r="E177" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F177" t="s">
-        <v>71</v>
+        <v>206</v>
       </c>
       <c r="G177" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="L177" t="s">
         <v>20</v>
       </c>
       <c r="M177">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="N177">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="O177">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="P177">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="Q177">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="R177">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="S177">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="T177">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="U177">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="V177">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="W177">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="178" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B178" t="s">
         <v>5</v>
@@ -11769,54 +11778,54 @@
         <v>197</v>
       </c>
       <c r="E178" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F178" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G178" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="L178" t="s">
         <v>20</v>
       </c>
       <c r="M178">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
       <c r="N178">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
       <c r="O178">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
       <c r="P178">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
       <c r="Q178">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
       <c r="R178">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
       <c r="S178">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
       <c r="T178">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
       <c r="U178">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
       <c r="V178">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
       <c r="W178">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="179" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
@@ -11828,10 +11837,10 @@
         <v>197</v>
       </c>
       <c r="E179" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F179" t="s">
-        <v>213</v>
+        <v>71</v>
       </c>
       <c r="G179" t="s">
         <v>64</v>
@@ -11840,42 +11849,42 @@
         <v>20</v>
       </c>
       <c r="M179">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="N179">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="O179">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="P179">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="Q179">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="R179">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="S179">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="T179">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="U179">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="V179">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="W179">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="180" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
@@ -11887,54 +11896,54 @@
         <v>197</v>
       </c>
       <c r="E180" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F180" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="G180" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="L180" t="s">
         <v>20</v>
       </c>
       <c r="M180">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="N180">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="O180">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="P180">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="Q180">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="R180">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="S180">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="T180">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="U180">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="V180">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="W180">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="181" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B181" t="s">
         <v>5</v>
@@ -11946,49 +11955,49 @@
         <v>197</v>
       </c>
       <c r="E181" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F181" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="G181" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="L181" t="s">
         <v>20</v>
       </c>
       <c r="M181">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
       <c r="N181">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
       <c r="O181">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
       <c r="P181">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
       <c r="Q181">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
       <c r="R181">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
       <c r="S181">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
       <c r="T181">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
       <c r="U181">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
       <c r="V181">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
       <c r="W181">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="182" spans="1:23" x14ac:dyDescent="0.25">
@@ -12008,51 +12017,51 @@
         <v>215</v>
       </c>
       <c r="F182" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G182" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="L182" t="s">
         <v>20</v>
       </c>
       <c r="M182">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="N182">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="O182">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="P182">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="Q182">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="R182">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="S182">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="T182">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="U182">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="V182">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="W182">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="183" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
@@ -12064,54 +12073,54 @@
         <v>197</v>
       </c>
       <c r="E183" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F183" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="G183" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="L183" t="s">
         <v>20</v>
       </c>
       <c r="M183">
-        <v>0.99</v>
+        <v>0.05</v>
       </c>
       <c r="N183">
-        <v>0.99</v>
+        <v>0.05</v>
       </c>
       <c r="O183">
-        <v>0.99</v>
+        <v>0.05</v>
       </c>
       <c r="P183">
-        <v>0.99</v>
+        <v>0.05</v>
       </c>
       <c r="Q183">
-        <v>0.99</v>
+        <v>0.05</v>
       </c>
       <c r="R183">
-        <v>0.99</v>
+        <v>0.05</v>
       </c>
       <c r="S183">
-        <v>0.99</v>
+        <v>0.05</v>
       </c>
       <c r="T183">
-        <v>0.99</v>
+        <v>0.05</v>
       </c>
       <c r="U183">
-        <v>0.99</v>
+        <v>0.05</v>
       </c>
       <c r="V183">
-        <v>0.99</v>
+        <v>0.05</v>
       </c>
       <c r="W183">
-        <v>0.99</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="184" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
@@ -12123,10 +12132,10 @@
         <v>197</v>
       </c>
       <c r="E184" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F184" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="G184" t="s">
         <v>19</v>
@@ -12135,42 +12144,42 @@
         <v>20</v>
       </c>
       <c r="M184">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="N184">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="O184">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="P184">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Q184">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="R184">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="S184">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="T184">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="U184">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="V184">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="W184">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="185" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B185" t="s">
         <v>5</v>
@@ -12182,54 +12191,54 @@
         <v>197</v>
       </c>
       <c r="E185" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F185" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="G185" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="L185" t="s">
         <v>20</v>
       </c>
       <c r="M185">
-        <v>2.5000000000000001E-2</v>
+        <v>0.99</v>
       </c>
       <c r="N185">
-        <v>2.5000000000000001E-2</v>
+        <v>0.99</v>
       </c>
       <c r="O185">
-        <v>2.5000000000000001E-2</v>
+        <v>0.99</v>
       </c>
       <c r="P185">
-        <v>2.5000000000000001E-2</v>
+        <v>0.99</v>
       </c>
       <c r="Q185">
-        <v>2.5000000000000001E-2</v>
+        <v>0.99</v>
       </c>
       <c r="R185">
-        <v>2.5000000000000001E-2</v>
+        <v>0.99</v>
       </c>
       <c r="S185">
-        <v>2.5000000000000001E-2</v>
+        <v>0.99</v>
       </c>
       <c r="T185">
-        <v>2.5000000000000001E-2</v>
+        <v>0.99</v>
       </c>
       <c r="U185">
-        <v>2.5000000000000001E-2</v>
+        <v>0.99</v>
       </c>
       <c r="V185">
-        <v>2.5000000000000001E-2</v>
+        <v>0.99</v>
       </c>
       <c r="W185">
-        <v>2.5000000000000001E-2</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="186" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B186" t="s">
         <v>5</v>
@@ -12241,54 +12250,54 @@
         <v>197</v>
       </c>
       <c r="E186" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F186" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="G186" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="L186" t="s">
         <v>20</v>
       </c>
       <c r="M186">
-        <v>0.99</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="N186">
-        <v>0.99</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="O186">
-        <v>0.99</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="P186">
-        <v>0.99</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Q186">
-        <v>0.99</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="R186">
-        <v>0.99</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="S186">
-        <v>0.99</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="T186">
-        <v>0.99</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="U186">
-        <v>0.99</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="V186">
-        <v>0.99</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="W186">
-        <v>0.99</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="187" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
@@ -12300,10 +12309,10 @@
         <v>197</v>
       </c>
       <c r="E187" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F187" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G187" t="s">
         <v>19</v>
@@ -12312,42 +12321,42 @@
         <v>20</v>
       </c>
       <c r="M187">
-        <v>0.1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="N187">
-        <v>0.1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="O187">
-        <v>0.1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="P187">
-        <v>0.1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Q187">
-        <v>0.1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="R187">
-        <v>0.1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="S187">
-        <v>0.1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="T187">
-        <v>0.1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="U187">
-        <v>0.1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="V187">
-        <v>0.1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="W187">
-        <v>0.1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="188" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
@@ -12359,54 +12368,54 @@
         <v>197</v>
       </c>
       <c r="E188" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F188" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G188" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="L188" t="s">
         <v>20</v>
       </c>
       <c r="M188">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="N188">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="O188">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="P188">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="Q188">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="R188">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="S188">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="T188">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="U188">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="V188">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="W188">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="189" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B189" t="s">
         <v>5</v>
@@ -12418,54 +12427,54 @@
         <v>197</v>
       </c>
       <c r="E189" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F189" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G189" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="L189" t="s">
         <v>20</v>
       </c>
       <c r="M189">
-        <v>0.19500000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="N189">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="O189">
-        <v>0.105</v>
+        <v>0.1</v>
       </c>
       <c r="P189">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="Q189">
-        <v>1.4999999999999999E-2</v>
+        <v>0.1</v>
       </c>
       <c r="R189">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S189">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T189">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="U189">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="V189">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="W189">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="190" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B190" t="s">
         <v>5</v>
@@ -12477,54 +12486,54 @@
         <v>197</v>
       </c>
       <c r="E190" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F190" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G190" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="L190" t="s">
         <v>20</v>
       </c>
       <c r="M190">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N190">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="O190">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="P190">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="Q190">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="R190">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="S190">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="T190">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="U190">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="V190">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="W190">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="191" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B191" t="s">
         <v>5</v>
@@ -12536,54 +12545,54 @@
         <v>197</v>
       </c>
       <c r="E191" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F191" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G191" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="L191" t="s">
         <v>20</v>
       </c>
       <c r="M191">
-        <v>0.75</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="N191">
-        <v>0.75</v>
+        <v>0.15</v>
       </c>
       <c r="O191">
-        <v>0.75</v>
+        <v>0.105</v>
       </c>
       <c r="P191">
-        <v>0.75</v>
+        <v>0.06</v>
       </c>
       <c r="Q191">
-        <v>0.75</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="R191">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="S191">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="T191">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="U191">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="V191">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="W191">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
@@ -12595,10 +12604,10 @@
         <v>197</v>
       </c>
       <c r="E192" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F192" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G192" t="s">
         <v>64</v>
@@ -12607,42 +12616,42 @@
         <v>20</v>
       </c>
       <c r="M192">
-        <v>0.74</v>
+        <v>0.3</v>
       </c>
       <c r="N192">
-        <v>0.74</v>
+        <v>0.3</v>
       </c>
       <c r="O192">
-        <v>0.74</v>
+        <v>0.3</v>
       </c>
       <c r="P192">
-        <v>0.74</v>
+        <v>0.3</v>
       </c>
       <c r="Q192">
-        <v>0.74</v>
+        <v>0.3</v>
       </c>
       <c r="R192">
-        <v>0.74</v>
+        <v>0.3</v>
       </c>
       <c r="S192">
-        <v>0.74</v>
+        <v>0.3</v>
       </c>
       <c r="T192">
-        <v>0.74</v>
+        <v>0.3</v>
       </c>
       <c r="U192">
-        <v>0.74</v>
+        <v>0.3</v>
       </c>
       <c r="V192">
-        <v>0.74</v>
+        <v>0.3</v>
       </c>
       <c r="W192">
-        <v>0.74</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="193" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B193" t="s">
         <v>5</v>
@@ -12654,54 +12663,54 @@
         <v>197</v>
       </c>
       <c r="E193" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F193" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G193" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="L193" t="s">
         <v>20</v>
       </c>
       <c r="M193">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="N193">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="O193">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="P193">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="Q193">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="R193">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="S193">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="T193">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="U193">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="V193">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="W193">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="194" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
@@ -12713,10 +12722,10 @@
         <v>197</v>
       </c>
       <c r="E194" t="s">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="F194" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G194" t="s">
         <v>64</v>
@@ -12725,42 +12734,42 @@
         <v>20</v>
       </c>
       <c r="M194">
-        <v>0.05</v>
+        <v>0.74</v>
       </c>
       <c r="N194">
-        <v>0.05</v>
+        <v>0.74</v>
       </c>
       <c r="O194">
-        <v>0.05</v>
+        <v>0.74</v>
       </c>
       <c r="P194">
-        <v>0.05</v>
+        <v>0.74</v>
       </c>
       <c r="Q194">
-        <v>0.05</v>
+        <v>0.74</v>
       </c>
       <c r="R194">
-        <v>0.05</v>
+        <v>0.74</v>
       </c>
       <c r="S194">
-        <v>0.05</v>
+        <v>0.74</v>
       </c>
       <c r="T194">
-        <v>0.05</v>
+        <v>0.74</v>
       </c>
       <c r="U194">
-        <v>0.05</v>
+        <v>0.74</v>
       </c>
       <c r="V194">
-        <v>0.05</v>
+        <v>0.74</v>
       </c>
       <c r="W194">
-        <v>0.05</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="195" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
@@ -12772,54 +12781,54 @@
         <v>197</v>
       </c>
       <c r="E195" t="s">
-        <v>71</v>
+        <v>238</v>
       </c>
       <c r="F195" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G195" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="L195" t="s">
         <v>20</v>
       </c>
       <c r="M195">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="N195">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="O195">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="P195">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="Q195">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="R195">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="S195">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="T195">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U195">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="V195">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="W195">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="196" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B196" t="s">
         <v>5</v>
@@ -12831,54 +12840,54 @@
         <v>197</v>
       </c>
       <c r="E196" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="F196" t="s">
-        <v>23</v>
+        <v>241</v>
       </c>
       <c r="G196" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="L196" t="s">
         <v>20</v>
       </c>
       <c r="M196">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="N196">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="O196">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="P196">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="Q196">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="R196">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="S196">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="T196">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="U196">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="V196">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="W196">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="197" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
@@ -12890,10 +12899,10 @@
         <v>197</v>
       </c>
       <c r="E197" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="F197" t="s">
-        <v>24</v>
+        <v>242</v>
       </c>
       <c r="G197" t="s">
         <v>19</v>
@@ -12902,37 +12911,37 @@
         <v>20</v>
       </c>
       <c r="M197">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="N197">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="O197">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="P197">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="Q197">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="R197">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="S197">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="T197">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="U197">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="V197">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="W197">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="198" spans="1:23" x14ac:dyDescent="0.25">
@@ -12952,7 +12961,7 @@
         <v>22</v>
       </c>
       <c r="F198" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G198" t="s">
         <v>19</v>
@@ -12996,7 +13005,7 @@
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
@@ -13008,10 +13017,10 @@
         <v>197</v>
       </c>
       <c r="E199" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F199" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G199" t="s">
         <v>19</v>
@@ -13055,7 +13064,7 @@
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B200" t="s">
         <v>5</v>
@@ -13067,10 +13076,10 @@
         <v>197</v>
       </c>
       <c r="E200" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F200" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G200" t="s">
         <v>19</v>
@@ -13114,7 +13123,7 @@
     </row>
     <row r="201" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B201" t="s">
         <v>5</v>
@@ -13126,10 +13135,10 @@
         <v>197</v>
       </c>
       <c r="E201" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F201" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G201" t="s">
         <v>19</v>
@@ -13173,7 +13182,7 @@
     </row>
     <row r="202" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B202" t="s">
         <v>5</v>
@@ -13185,10 +13194,10 @@
         <v>197</v>
       </c>
       <c r="E202" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F202" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G202" t="s">
         <v>19</v>
@@ -13247,7 +13256,7 @@
         <v>30</v>
       </c>
       <c r="F203" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G203" t="s">
         <v>19</v>
@@ -13291,7 +13300,7 @@
     </row>
     <row r="204" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B204" t="s">
         <v>5</v>
@@ -13303,10 +13312,10 @@
         <v>197</v>
       </c>
       <c r="E204" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F204" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G204" t="s">
         <v>19</v>
@@ -13350,7 +13359,7 @@
     </row>
     <row r="205" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B205" t="s">
         <v>5</v>
@@ -13362,10 +13371,10 @@
         <v>197</v>
       </c>
       <c r="E205" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F205" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G205" t="s">
         <v>19</v>
@@ -13424,7 +13433,7 @@
         <v>35</v>
       </c>
       <c r="F206" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G206" t="s">
         <v>19</v>
@@ -13468,7 +13477,7 @@
     </row>
     <row r="207" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
@@ -13480,10 +13489,10 @@
         <v>197</v>
       </c>
       <c r="E207" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F207" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G207" t="s">
         <v>19</v>
@@ -13527,7 +13536,7 @@
     </row>
     <row r="208" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B208" t="s">
         <v>5</v>
@@ -13542,7 +13551,7 @@
         <v>35</v>
       </c>
       <c r="F208" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G208" t="s">
         <v>19</v>
@@ -13586,7 +13595,7 @@
     </row>
     <row r="209" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B209" t="s">
         <v>5</v>
@@ -13601,7 +13610,7 @@
         <v>30</v>
       </c>
       <c r="F209" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G209" t="s">
         <v>19</v>
@@ -13645,7 +13654,7 @@
     </row>
     <row r="210" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
@@ -13660,7 +13669,7 @@
         <v>35</v>
       </c>
       <c r="F210" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G210" t="s">
         <v>19</v>
@@ -13704,7 +13713,7 @@
     </row>
     <row r="211" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B211" t="s">
         <v>5</v>
@@ -13719,7 +13728,7 @@
         <v>30</v>
       </c>
       <c r="F211" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G211" t="s">
         <v>19</v>
@@ -13763,7 +13772,7 @@
     </row>
     <row r="212" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B212" t="s">
         <v>5</v>
@@ -13778,7 +13787,7 @@
         <v>35</v>
       </c>
       <c r="F212" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G212" t="s">
         <v>19</v>
@@ -13822,7 +13831,7 @@
     </row>
     <row r="213" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B213" t="s">
         <v>5</v>
@@ -13834,10 +13843,10 @@
         <v>197</v>
       </c>
       <c r="E213" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F213" t="s">
-        <v>254</v>
+        <v>43</v>
       </c>
       <c r="G213" t="s">
         <v>19</v>
@@ -13846,42 +13855,42 @@
         <v>20</v>
       </c>
       <c r="M213">
-        <v>0.90500000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="N213">
-        <v>0.90500000000000003</v>
+        <v>1</v>
       </c>
       <c r="O213">
-        <v>0.90500000000000003</v>
+        <v>1</v>
       </c>
       <c r="P213">
-        <v>0.90500000000000003</v>
+        <v>1</v>
       </c>
       <c r="Q213">
-        <v>0.90500000000000003</v>
+        <v>1</v>
       </c>
       <c r="R213">
-        <v>0.90500000000000003</v>
+        <v>1</v>
       </c>
       <c r="S213">
-        <v>0.90500000000000003</v>
+        <v>1</v>
       </c>
       <c r="T213">
-        <v>0.90500000000000003</v>
+        <v>1</v>
       </c>
       <c r="U213">
-        <v>0.90500000000000003</v>
+        <v>1</v>
       </c>
       <c r="V213">
-        <v>0.90500000000000003</v>
+        <v>1</v>
       </c>
       <c r="W213">
-        <v>0.90500000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B214" t="s">
         <v>5</v>
@@ -13893,49 +13902,49 @@
         <v>197</v>
       </c>
       <c r="E214" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F214" t="s">
-        <v>254</v>
+        <v>43</v>
       </c>
       <c r="G214" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="L214" t="s">
         <v>20</v>
       </c>
       <c r="M214">
-        <v>0.89500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="N214">
-        <v>0.89500000000000002</v>
+        <v>1</v>
       </c>
       <c r="O214">
-        <v>0.89500000000000002</v>
+        <v>1</v>
       </c>
       <c r="P214">
-        <v>0.89500000000000002</v>
+        <v>1</v>
       </c>
       <c r="Q214">
-        <v>0.89500000000000002</v>
+        <v>1</v>
       </c>
       <c r="R214">
-        <v>0.89500000000000002</v>
+        <v>1</v>
       </c>
       <c r="S214">
-        <v>0.89500000000000002</v>
+        <v>1</v>
       </c>
       <c r="T214">
-        <v>0.89500000000000002</v>
+        <v>1</v>
       </c>
       <c r="U214">
-        <v>0.89500000000000002</v>
+        <v>1</v>
       </c>
       <c r="V214">
-        <v>0.89500000000000002</v>
+        <v>1</v>
       </c>
       <c r="W214">
-        <v>0.89500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:23" x14ac:dyDescent="0.25">
@@ -13955,7 +13964,7 @@
         <v>46</v>
       </c>
       <c r="F215" t="s">
-        <v>47</v>
+        <v>254</v>
       </c>
       <c r="G215" t="s">
         <v>19</v>
@@ -13964,37 +13973,37 @@
         <v>20</v>
       </c>
       <c r="M215">
-        <v>0.105</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="N215">
-        <v>0.105</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="O215">
-        <v>0.105</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="P215">
-        <v>0.105</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="Q215">
-        <v>0.105</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="R215">
-        <v>0.105</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="S215">
-        <v>0.105</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="T215">
-        <v>0.105</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="U215">
-        <v>0.105</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="V215">
-        <v>0.105</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="W215">
-        <v>0.105</v>
+        <v>0.90500000000000003</v>
       </c>
     </row>
     <row r="216" spans="1:23" x14ac:dyDescent="0.25">
@@ -14014,7 +14023,7 @@
         <v>46</v>
       </c>
       <c r="F216" t="s">
-        <v>47</v>
+        <v>254</v>
       </c>
       <c r="G216" t="s">
         <v>64</v>
@@ -14023,42 +14032,42 @@
         <v>20</v>
       </c>
       <c r="M216">
-        <v>9.5000000000000001E-2</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="N216">
-        <v>9.5000000000000001E-2</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="O216">
-        <v>9.5000000000000001E-2</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="P216">
-        <v>9.5000000000000001E-2</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="Q216">
-        <v>9.5000000000000001E-2</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="R216">
-        <v>9.5000000000000001E-2</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="S216">
-        <v>9.5000000000000001E-2</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="T216">
-        <v>9.5000000000000001E-2</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="U216">
-        <v>9.5000000000000001E-2</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="V216">
-        <v>9.5000000000000001E-2</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="W216">
-        <v>9.5000000000000001E-2</v>
+        <v>0.89500000000000002</v>
       </c>
     </row>
     <row r="217" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B217" t="s">
         <v>5</v>
@@ -14070,10 +14079,10 @@
         <v>197</v>
       </c>
       <c r="E217" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F217" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="G217" t="s">
         <v>19</v>
@@ -14082,42 +14091,42 @@
         <v>20</v>
       </c>
       <c r="M217">
-        <v>7.0000000000000007E-2</v>
+        <v>0.105</v>
       </c>
       <c r="N217">
-        <v>7.0000000000000007E-2</v>
+        <v>0.105</v>
       </c>
       <c r="O217">
-        <v>7.0000000000000007E-2</v>
+        <v>0.105</v>
       </c>
       <c r="P217">
-        <v>7.0000000000000007E-2</v>
+        <v>0.105</v>
       </c>
       <c r="Q217">
-        <v>7.0000000000000007E-2</v>
+        <v>0.105</v>
       </c>
       <c r="R217">
-        <v>7.0000000000000007E-2</v>
+        <v>0.105</v>
       </c>
       <c r="S217">
-        <v>7.0000000000000007E-2</v>
+        <v>0.105</v>
       </c>
       <c r="T217">
-        <v>7.0000000000000007E-2</v>
+        <v>0.105</v>
       </c>
       <c r="U217">
-        <v>7.0000000000000007E-2</v>
+        <v>0.105</v>
       </c>
       <c r="V217">
-        <v>7.0000000000000007E-2</v>
+        <v>0.105</v>
       </c>
       <c r="W217">
-        <v>7.0000000000000007E-2</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="218" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B218" t="s">
         <v>5</v>
@@ -14129,10 +14138,10 @@
         <v>197</v>
       </c>
       <c r="E218" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F218" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="G218" t="s">
         <v>64</v>
@@ -14141,37 +14150,37 @@
         <v>20</v>
       </c>
       <c r="M218">
-        <v>0.05</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="N218">
-        <v>0.05</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="O218">
-        <v>0.05</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="P218">
-        <v>0.05</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="Q218">
-        <v>0.05</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="R218">
-        <v>0.05</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="S218">
-        <v>0.05</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="T218">
-        <v>0.05</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="U218">
-        <v>0.05</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="V218">
-        <v>0.05</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="W218">
-        <v>0.05</v>
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="219" spans="1:23" x14ac:dyDescent="0.25">
@@ -14191,7 +14200,7 @@
         <v>61</v>
       </c>
       <c r="F219" t="s">
-        <v>256</v>
+        <v>63</v>
       </c>
       <c r="G219" t="s">
         <v>19</v>
@@ -14200,37 +14209,37 @@
         <v>20</v>
       </c>
       <c r="M219">
-        <v>0.7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N219">
-        <v>0.7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O219">
-        <v>0.7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P219">
-        <v>0.7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q219">
-        <v>0.7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="R219">
-        <v>0.7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="S219">
-        <v>0.7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T219">
-        <v>0.7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="U219">
-        <v>0.7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="V219">
-        <v>0.7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="W219">
-        <v>0.7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="220" spans="1:23" x14ac:dyDescent="0.25">
@@ -14250,7 +14259,7 @@
         <v>61</v>
       </c>
       <c r="F220" t="s">
-        <v>256</v>
+        <v>63</v>
       </c>
       <c r="G220" t="s">
         <v>64</v>
@@ -14259,42 +14268,42 @@
         <v>20</v>
       </c>
       <c r="M220">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="N220">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="O220">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="P220">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="Q220">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="R220">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="S220">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="T220">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="U220">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="V220">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="W220">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="221" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B221" t="s">
         <v>5</v>
@@ -14306,10 +14315,10 @@
         <v>197</v>
       </c>
       <c r="E221" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F221" t="s">
-        <v>136</v>
+        <v>256</v>
       </c>
       <c r="G221" t="s">
         <v>19</v>
@@ -14318,42 +14327,42 @@
         <v>20</v>
       </c>
       <c r="M221">
-        <v>7.0000000000000007E-2</v>
+        <v>0.7</v>
       </c>
       <c r="N221">
-        <v>7.0000000000000007E-2</v>
+        <v>0.7</v>
       </c>
       <c r="O221">
-        <v>7.0000000000000007E-2</v>
+        <v>0.7</v>
       </c>
       <c r="P221">
-        <v>7.0000000000000007E-2</v>
+        <v>0.7</v>
       </c>
       <c r="Q221">
-        <v>7.0000000000000007E-2</v>
+        <v>0.7</v>
       </c>
       <c r="R221">
-        <v>7.0000000000000007E-2</v>
+        <v>0.7</v>
       </c>
       <c r="S221">
-        <v>7.0000000000000007E-2</v>
+        <v>0.7</v>
       </c>
       <c r="T221">
-        <v>7.0000000000000007E-2</v>
+        <v>0.7</v>
       </c>
       <c r="U221">
-        <v>7.0000000000000007E-2</v>
+        <v>0.7</v>
       </c>
       <c r="V221">
-        <v>7.0000000000000007E-2</v>
+        <v>0.7</v>
       </c>
       <c r="W221">
-        <v>7.0000000000000007E-2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="222" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B222" t="s">
         <v>5</v>
@@ -14365,10 +14374,10 @@
         <v>197</v>
       </c>
       <c r="E222" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F222" t="s">
-        <v>136</v>
+        <v>256</v>
       </c>
       <c r="G222" t="s">
         <v>64</v>
@@ -14377,37 +14386,37 @@
         <v>20</v>
       </c>
       <c r="M222">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="N222">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="O222">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="P222">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="Q222">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="R222">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="S222">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="T222">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="U222">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="V222">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="W222">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="223" spans="1:23" x14ac:dyDescent="0.25">
@@ -14427,7 +14436,7 @@
         <v>66</v>
       </c>
       <c r="F223" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="G223" t="s">
         <v>19</v>
@@ -14436,37 +14445,37 @@
         <v>20</v>
       </c>
       <c r="M223">
-        <v>0.7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N223">
-        <v>0.7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O223">
-        <v>0.7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P223">
-        <v>0.7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q223">
-        <v>0.7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="R223">
-        <v>0.7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="S223">
-        <v>0.7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T223">
-        <v>0.7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="U223">
-        <v>0.7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="V223">
-        <v>0.7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="W223">
-        <v>0.7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="224" spans="1:23" x14ac:dyDescent="0.25">
@@ -14486,7 +14495,7 @@
         <v>66</v>
       </c>
       <c r="F224" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="G224" t="s">
         <v>64</v>
@@ -14495,42 +14504,42 @@
         <v>20</v>
       </c>
       <c r="M224">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="N224">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="O224">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="P224">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="Q224">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="R224">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="S224">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="T224">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="U224">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="V224">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="W224">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="225" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B225" t="s">
         <v>5</v>
@@ -14539,13 +14548,13 @@
         <v>15</v>
       </c>
       <c r="D225" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="E225" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F225" t="s">
-        <v>260</v>
+        <v>68</v>
       </c>
       <c r="G225" t="s">
         <v>19</v>
@@ -14554,42 +14563,42 @@
         <v>20</v>
       </c>
       <c r="M225">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="N225">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O225">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="P225">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="Q225">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="R225">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="S225">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="T225">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="U225">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="V225">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="W225">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="226" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B226" t="s">
         <v>5</v>
@@ -14598,13 +14607,13 @@
         <v>15</v>
       </c>
       <c r="D226" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="E226" t="s">
-        <v>262</v>
+        <v>66</v>
       </c>
       <c r="F226" t="s">
-        <v>263</v>
+        <v>68</v>
       </c>
       <c r="G226" t="s">
         <v>64</v>
@@ -14613,42 +14622,42 @@
         <v>20</v>
       </c>
       <c r="M226">
-        <v>0.06</v>
+        <v>0.5</v>
       </c>
       <c r="N226">
-        <v>0.06</v>
+        <v>0.5</v>
       </c>
       <c r="O226">
-        <v>0.06</v>
+        <v>0.5</v>
       </c>
       <c r="P226">
-        <v>0.06</v>
+        <v>0.5</v>
       </c>
       <c r="Q226">
-        <v>0.06</v>
+        <v>0.5</v>
       </c>
       <c r="R226">
-        <v>0.06</v>
+        <v>0.5</v>
       </c>
       <c r="S226">
-        <v>0.06</v>
+        <v>0.5</v>
       </c>
       <c r="T226">
-        <v>0.06</v>
+        <v>0.5</v>
       </c>
       <c r="U226">
-        <v>0.06</v>
+        <v>0.5</v>
       </c>
       <c r="V226">
-        <v>0.06</v>
+        <v>0.5</v>
       </c>
       <c r="W226">
-        <v>0.06</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="227" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
@@ -14660,54 +14669,54 @@
         <v>259</v>
       </c>
       <c r="E227" t="s">
-        <v>265</v>
+        <v>71</v>
       </c>
       <c r="F227" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G227" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="L227" t="s">
         <v>20</v>
       </c>
       <c r="M227">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="N227">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="O227">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="P227">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="Q227">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="R227">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="S227">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="T227">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="U227">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="V227">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="W227">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
@@ -14716,57 +14725,57 @@
         <v>15</v>
       </c>
       <c r="D228" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E228" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F228" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G228" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="L228" t="s">
         <v>20</v>
       </c>
       <c r="M228">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="N228">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="O228">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="P228">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="Q228">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="R228">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="S228">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="T228">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="U228">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="V228">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="W228">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="229" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B229" t="s">
         <v>5</v>
@@ -14775,57 +14784,57 @@
         <v>15</v>
       </c>
       <c r="D229" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E229" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F229" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G229" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="L229" t="s">
         <v>20</v>
       </c>
       <c r="M229">
-        <v>0.4</v>
+        <v>0.06</v>
       </c>
       <c r="N229">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="O229">
-        <v>0.9</v>
+        <v>0.06</v>
       </c>
       <c r="P229">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="Q229">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="R229">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="S229">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="T229">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="U229">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="V229">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="W229">
-        <v>1</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="230" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
@@ -14837,10 +14846,10 @@
         <v>268</v>
       </c>
       <c r="E230" t="s">
-        <v>118</v>
+        <v>269</v>
       </c>
       <c r="F230" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G230" t="s">
         <v>19</v>
@@ -14849,42 +14858,42 @@
         <v>20</v>
       </c>
       <c r="M230">
-        <v>2.7E-2</v>
+        <v>0.15</v>
       </c>
       <c r="N230">
-        <v>2.7E-2</v>
+        <v>0.15</v>
       </c>
       <c r="O230">
-        <v>2.7E-2</v>
+        <v>0.15</v>
       </c>
       <c r="P230">
-        <v>2.7E-2</v>
+        <v>0.15</v>
       </c>
       <c r="Q230">
-        <v>2.7E-2</v>
+        <v>0.15</v>
       </c>
       <c r="R230">
-        <v>2.7E-2</v>
+        <v>0.15</v>
       </c>
       <c r="S230">
-        <v>2.7E-2</v>
+        <v>0.15</v>
       </c>
       <c r="T230">
-        <v>2.7E-2</v>
+        <v>0.15</v>
       </c>
       <c r="U230">
-        <v>2.7E-2</v>
+        <v>0.15</v>
       </c>
       <c r="V230">
-        <v>2.7E-2</v>
+        <v>0.15</v>
       </c>
       <c r="W230">
-        <v>2.7E-2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="231" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B231" t="s">
         <v>5</v>
@@ -14896,54 +14905,54 @@
         <v>268</v>
       </c>
       <c r="E231" t="s">
-        <v>118</v>
+        <v>272</v>
       </c>
       <c r="F231" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G231" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="L231" t="s">
         <v>20</v>
       </c>
       <c r="M231">
-        <v>2.5999999999999999E-2</v>
+        <v>0.4</v>
       </c>
       <c r="N231">
-        <v>2.5999999999999999E-2</v>
+        <v>0.65</v>
       </c>
       <c r="O231">
-        <v>2.5999999999999999E-2</v>
+        <v>0.9</v>
       </c>
       <c r="P231">
-        <v>2.5999999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="Q231">
-        <v>2.5999999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="R231">
-        <v>2.5999999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="S231">
-        <v>2.5999999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="T231">
-        <v>2.5999999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="U231">
-        <v>2.5999999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="V231">
-        <v>2.5999999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="W231">
-        <v>2.5999999999999999E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B232" t="s">
         <v>5</v>
@@ -14955,10 +14964,10 @@
         <v>268</v>
       </c>
       <c r="E232" t="s">
-        <v>277</v>
+        <v>118</v>
       </c>
       <c r="F232" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G232" t="s">
         <v>19</v>
@@ -14967,52 +14976,42 @@
         <v>20</v>
       </c>
       <c r="M232">
-        <v>0.02</v>
+        <v>2.7E-2</v>
       </c>
       <c r="N232">
-        <f t="shared" ref="N232:W235" si="0">M232</f>
-        <v>0.02</v>
+        <v>2.7E-2</v>
       </c>
       <c r="O232">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>2.7E-2</v>
       </c>
       <c r="P232">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>2.7E-2</v>
       </c>
       <c r="Q232">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>2.7E-2</v>
       </c>
       <c r="R232">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>2.7E-2</v>
       </c>
       <c r="S232">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>2.7E-2</v>
       </c>
       <c r="T232">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>2.7E-2</v>
       </c>
       <c r="U232">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>2.7E-2</v>
       </c>
       <c r="V232">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>2.7E-2</v>
       </c>
       <c r="W232">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="233" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B233" t="s">
         <v>5</v>
@@ -15024,59 +15023,49 @@
         <v>268</v>
       </c>
       <c r="E233" t="s">
-        <v>277</v>
+        <v>118</v>
       </c>
       <c r="F233" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G233" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="L233" t="s">
         <v>20</v>
       </c>
       <c r="M233">
-        <v>0.05</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="N233">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="O233">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="P233">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="Q233">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="R233">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="S233">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="T233">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="U233">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="V233">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="W233">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="234" spans="1:24" x14ac:dyDescent="0.25">
@@ -15099,53 +15088,53 @@
         <v>278</v>
       </c>
       <c r="G234" t="s">
-        <v>280</v>
+        <v>19</v>
       </c>
       <c r="L234" t="s">
         <v>20</v>
       </c>
       <c r="M234">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="N234">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="N234:W237" si="0">M234</f>
+        <v>0.02</v>
       </c>
       <c r="O234">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P234">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Q234">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="R234">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="S234">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T234">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U234">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="V234">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="W234">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="235" spans="1:24" x14ac:dyDescent="0.25">
@@ -15168,58 +15157,58 @@
         <v>279</v>
       </c>
       <c r="G235" t="s">
-        <v>280</v>
+        <v>19</v>
       </c>
       <c r="L235" t="s">
         <v>20</v>
       </c>
       <c r="M235">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="N235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="O235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="P235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="T235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="U235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="V235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="W235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="236" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B236" t="s">
         <v>5</v>
@@ -15231,54 +15220,64 @@
         <v>268</v>
       </c>
       <c r="E236" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F236" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G236" t="s">
-        <v>19</v>
+        <v>280</v>
       </c>
       <c r="L236" t="s">
         <v>20</v>
       </c>
       <c r="M236">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N236">
-        <v>0.03</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="O236">
-        <v>0.03</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="P236">
-        <v>0.03</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="Q236">
-        <v>0.03</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R236">
-        <v>0.03</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="S236">
-        <v>0.03</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="T236">
-        <v>0.03</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="U236">
-        <v>0.03</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="V236">
-        <v>0.03</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="W236">
-        <v>0.03</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B237" t="s">
         <v>5</v>
@@ -15287,57 +15286,67 @@
         <v>15</v>
       </c>
       <c r="D237" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="E237" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="F237" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="G237" t="s">
-        <v>19</v>
+        <v>280</v>
       </c>
       <c r="L237" t="s">
         <v>20</v>
       </c>
       <c r="M237">
-        <v>2.8571428571428601E-4</v>
+        <v>0</v>
       </c>
       <c r="N237">
-        <v>2.8571428571428601E-4</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="O237">
-        <v>2.8571428571428601E-4</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="P237">
-        <v>2.8571428571428601E-4</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="Q237">
-        <v>2.8571428571428601E-4</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R237">
-        <v>2.8571428571428601E-4</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="S237">
-        <v>2.8571428571428601E-4</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="T237">
-        <v>2.8571428571428601E-4</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="U237">
-        <v>2.8571428571428601E-4</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="V237">
-        <v>2.8571428571428601E-4</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="W237">
-        <v>2.8571428571428601E-4</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B238" t="s">
         <v>5</v>
@@ -15346,60 +15355,57 @@
         <v>15</v>
       </c>
       <c r="D238" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="E238" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F238" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G238" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="L238" t="s">
         <v>20</v>
       </c>
       <c r="M238">
-        <v>5.1143743441838E-8</v>
+        <v>0.03</v>
       </c>
       <c r="N238">
-        <v>5.1143743441838E-8</v>
+        <v>0.03</v>
       </c>
       <c r="O238">
-        <v>5.1143743441838E-8</v>
+        <v>0.03</v>
       </c>
       <c r="P238">
-        <v>5.1143743441838E-8</v>
+        <v>0.03</v>
       </c>
       <c r="Q238">
-        <v>5.1143743441838E-8</v>
+        <v>0.03</v>
       </c>
       <c r="R238">
-        <v>5.1143743441838E-8</v>
+        <v>0.03</v>
       </c>
       <c r="S238">
-        <v>5.1143743441838E-8</v>
+        <v>0.03</v>
       </c>
       <c r="T238">
-        <v>5.1143743441838E-8</v>
+        <v>0.03</v>
       </c>
       <c r="U238">
-        <v>5.1143743441838E-8</v>
+        <v>0.03</v>
       </c>
       <c r="V238">
-        <v>5.1143743441838E-8</v>
+        <v>0.03</v>
       </c>
       <c r="W238">
-        <v>5.1143743441838E-8</v>
-      </c>
-      <c r="X238" t="s">
-        <v>289</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="239" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B239" t="s">
         <v>5</v>
@@ -15411,54 +15417,54 @@
         <v>285</v>
       </c>
       <c r="E239" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F239" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G239" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="L239" t="s">
         <v>20</v>
       </c>
       <c r="M239">
-        <v>1</v>
+        <v>2.8571428571428601E-4</v>
       </c>
       <c r="N239">
-        <v>1</v>
+        <v>2.8571428571428601E-4</v>
       </c>
       <c r="O239">
-        <v>1</v>
+        <v>2.8571428571428601E-4</v>
       </c>
       <c r="P239">
-        <v>1</v>
+        <v>2.8571428571428601E-4</v>
       </c>
       <c r="Q239">
-        <v>1</v>
+        <v>2.8571428571428601E-4</v>
       </c>
       <c r="R239">
-        <v>1</v>
+        <v>2.8571428571428601E-4</v>
       </c>
       <c r="S239">
-        <v>1</v>
+        <v>2.8571428571428601E-4</v>
       </c>
       <c r="T239">
-        <v>1</v>
+        <v>2.8571428571428601E-4</v>
       </c>
       <c r="U239">
-        <v>1</v>
+        <v>2.8571428571428601E-4</v>
       </c>
       <c r="V239">
-        <v>1</v>
+        <v>2.8571428571428601E-4</v>
       </c>
       <c r="W239">
-        <v>1</v>
+        <v>2.8571428571428601E-4</v>
       </c>
     </row>
     <row r="240" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B240" t="s">
         <v>5</v>
@@ -15467,57 +15473,60 @@
         <v>15</v>
       </c>
       <c r="D240" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E240" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F240" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G240" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="L240" t="s">
         <v>20</v>
       </c>
       <c r="M240">
-        <v>0.34533154900000002</v>
+        <v>5.1143743441838E-8</v>
       </c>
       <c r="N240">
-        <v>0.34533154900000002</v>
+        <v>5.1143743441838E-8</v>
       </c>
       <c r="O240">
-        <v>0.34533154900000002</v>
+        <v>5.1143743441838E-8</v>
       </c>
       <c r="P240">
-        <v>0.34533154900000002</v>
+        <v>5.1143743441838E-8</v>
       </c>
       <c r="Q240">
-        <v>0.34533154900000002</v>
+        <v>5.1143743441838E-8</v>
       </c>
       <c r="R240">
-        <v>0.34533154900000002</v>
+        <v>5.1143743441838E-8</v>
       </c>
       <c r="S240">
-        <v>0.34533154900000002</v>
+        <v>5.1143743441838E-8</v>
       </c>
       <c r="T240">
-        <v>0.34533154900000002</v>
+        <v>5.1143743441838E-8</v>
       </c>
       <c r="U240">
-        <v>0.34533154900000002</v>
+        <v>5.1143743441838E-8</v>
       </c>
       <c r="V240">
-        <v>0.34533154900000002</v>
+        <v>5.1143743441838E-8</v>
       </c>
       <c r="W240">
-        <v>0.34533154900000002</v>
+        <v>5.1143743441838E-8</v>
+      </c>
+      <c r="X240" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="241" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B241" t="s">
         <v>5</v>
@@ -15526,57 +15535,57 @@
         <v>15</v>
       </c>
       <c r="D241" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="E241" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F241" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G241" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="L241" t="s">
         <v>20</v>
       </c>
       <c r="M241">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="N241">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O241">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="P241">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="Q241">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="R241">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="S241">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="T241">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="U241">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="V241">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="W241">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
@@ -15585,13 +15594,13 @@
         <v>15</v>
       </c>
       <c r="D242" t="s">
-        <v>70</v>
+        <v>294</v>
       </c>
       <c r="E242" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F242" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G242" t="s">
         <v>19</v>
@@ -15600,45 +15609,42 @@
         <v>20</v>
       </c>
       <c r="M242">
-        <v>0.01</v>
+        <v>0.34533154900000002</v>
       </c>
       <c r="N242">
-        <v>0.01</v>
+        <v>0.34533154900000002</v>
       </c>
       <c r="O242">
-        <v>0.01</v>
+        <v>0.34533154900000002</v>
       </c>
       <c r="P242">
-        <v>0.01</v>
+        <v>0.34533154900000002</v>
       </c>
       <c r="Q242">
-        <v>0.01</v>
+        <v>0.34533154900000002</v>
       </c>
       <c r="R242">
-        <v>0.01</v>
+        <v>0.34533154900000002</v>
       </c>
       <c r="S242">
-        <v>0.01</v>
+        <v>0.34533154900000002</v>
       </c>
       <c r="T242">
-        <v>0.01</v>
+        <v>0.34533154900000002</v>
       </c>
       <c r="U242">
-        <v>0.01</v>
+        <v>0.34533154900000002</v>
       </c>
       <c r="V242">
-        <v>0.01</v>
+        <v>0.34533154900000002</v>
       </c>
       <c r="W242">
-        <v>0.01</v>
-      </c>
-      <c r="X242" t="s">
-        <v>303</v>
+        <v>0.34533154900000002</v>
       </c>
     </row>
     <row r="243" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B243" t="s">
         <v>5</v>
@@ -15647,13 +15653,13 @@
         <v>15</v>
       </c>
       <c r="D243" t="s">
-        <v>74</v>
+        <v>298</v>
       </c>
       <c r="E243" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F243" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G243" t="s">
         <v>19</v>
@@ -15662,45 +15668,42 @@
         <v>20</v>
       </c>
       <c r="M243">
-        <v>0.01</v>
+        <v>0.95</v>
       </c>
       <c r="N243">
-        <v>0.01</v>
+        <v>0.95</v>
       </c>
       <c r="O243">
-        <v>0.01</v>
+        <v>0.95</v>
       </c>
       <c r="P243">
-        <v>0.01</v>
+        <v>0.95</v>
       </c>
       <c r="Q243">
-        <v>0.01</v>
+        <v>0.95</v>
       </c>
       <c r="R243">
-        <v>0.01</v>
+        <v>0.95</v>
       </c>
       <c r="S243">
-        <v>0.01</v>
+        <v>0.95</v>
       </c>
       <c r="T243">
-        <v>0.01</v>
+        <v>0.95</v>
       </c>
       <c r="U243">
-        <v>0.01</v>
+        <v>0.95</v>
       </c>
       <c r="V243">
-        <v>0.01</v>
+        <v>0.95</v>
       </c>
       <c r="W243">
-        <v>0.01</v>
-      </c>
-      <c r="X243" t="s">
-        <v>303</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="244" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B244" t="s">
         <v>5</v>
@@ -15709,7 +15712,7 @@
         <v>15</v>
       </c>
       <c r="D244" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E244" t="s">
         <v>301</v>
@@ -15762,7 +15765,7 @@
     </row>
     <row r="245" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B245" t="s">
         <v>5</v>
@@ -15771,7 +15774,7 @@
         <v>15</v>
       </c>
       <c r="D245" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="E245" t="s">
         <v>301</v>
@@ -15824,7 +15827,7 @@
     </row>
     <row r="246" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B246" t="s">
         <v>5</v>
@@ -15833,7 +15836,7 @@
         <v>15</v>
       </c>
       <c r="D246" t="s">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="E246" t="s">
         <v>301</v>
@@ -15886,7 +15889,7 @@
     </row>
     <row r="247" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B247" t="s">
         <v>5</v>
@@ -15895,7 +15898,7 @@
         <v>15</v>
       </c>
       <c r="D247" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="E247" t="s">
         <v>301</v>
@@ -15948,7 +15951,7 @@
     </row>
     <row r="248" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B248" t="s">
         <v>5</v>
@@ -15957,7 +15960,7 @@
         <v>15</v>
       </c>
       <c r="D248" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="E248" t="s">
         <v>301</v>
@@ -16010,7 +16013,7 @@
     </row>
     <row r="249" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B249" t="s">
         <v>5</v>
@@ -16019,7 +16022,7 @@
         <v>15</v>
       </c>
       <c r="D249" t="s">
-        <v>259</v>
+        <v>179</v>
       </c>
       <c r="E249" t="s">
         <v>301</v>
@@ -16067,6 +16070,130 @@
         <v>0.01</v>
       </c>
       <c r="X249" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="250" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>310</v>
+      </c>
+      <c r="B250" t="s">
+        <v>5</v>
+      </c>
+      <c r="C250" t="s">
+        <v>15</v>
+      </c>
+      <c r="D250" t="s">
+        <v>197</v>
+      </c>
+      <c r="E250" t="s">
+        <v>301</v>
+      </c>
+      <c r="F250" t="s">
+        <v>302</v>
+      </c>
+      <c r="G250" t="s">
+        <v>19</v>
+      </c>
+      <c r="L250" t="s">
+        <v>20</v>
+      </c>
+      <c r="M250">
+        <v>0.01</v>
+      </c>
+      <c r="N250">
+        <v>0.01</v>
+      </c>
+      <c r="O250">
+        <v>0.01</v>
+      </c>
+      <c r="P250">
+        <v>0.01</v>
+      </c>
+      <c r="Q250">
+        <v>0.01</v>
+      </c>
+      <c r="R250">
+        <v>0.01</v>
+      </c>
+      <c r="S250">
+        <v>0.01</v>
+      </c>
+      <c r="T250">
+        <v>0.01</v>
+      </c>
+      <c r="U250">
+        <v>0.01</v>
+      </c>
+      <c r="V250">
+        <v>0.01</v>
+      </c>
+      <c r="W250">
+        <v>0.01</v>
+      </c>
+      <c r="X250" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="251" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>311</v>
+      </c>
+      <c r="B251" t="s">
+        <v>5</v>
+      </c>
+      <c r="C251" t="s">
+        <v>15</v>
+      </c>
+      <c r="D251" t="s">
+        <v>259</v>
+      </c>
+      <c r="E251" t="s">
+        <v>301</v>
+      </c>
+      <c r="F251" t="s">
+        <v>302</v>
+      </c>
+      <c r="G251" t="s">
+        <v>19</v>
+      </c>
+      <c r="L251" t="s">
+        <v>20</v>
+      </c>
+      <c r="M251">
+        <v>0.01</v>
+      </c>
+      <c r="N251">
+        <v>0.01</v>
+      </c>
+      <c r="O251">
+        <v>0.01</v>
+      </c>
+      <c r="P251">
+        <v>0.01</v>
+      </c>
+      <c r="Q251">
+        <v>0.01</v>
+      </c>
+      <c r="R251">
+        <v>0.01</v>
+      </c>
+      <c r="S251">
+        <v>0.01</v>
+      </c>
+      <c r="T251">
+        <v>0.01</v>
+      </c>
+      <c r="U251">
+        <v>0.01</v>
+      </c>
+      <c r="V251">
+        <v>0.01</v>
+      </c>
+      <c r="W251">
+        <v>0.01</v>
+      </c>
+      <c r="X251" t="s">
         <v>303</v>
       </c>
     </row>
